--- a/dataset/2nd_data/beak/beak_growth_detail_data.xlsx
+++ b/dataset/2nd_data/beak/beak_growth_detail_data.xlsx
@@ -523,7 +523,7 @@
         <v>1.7</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4384648951048951</v>
+        <v>0.4628571428571429</v>
       </c>
       <c r="N2" t="n">
         <v>-1</v>
@@ -596,7 +596,7 @@
         <v>1.7</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5196620979020978</v>
+        <v>0.5485714285714285</v>
       </c>
       <c r="N3" t="n">
         <v>-1</v>
@@ -669,7 +669,7 @@
         <v>1.7</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9256481118881118</v>
+        <v>0.9771428571428571</v>
       </c>
       <c r="N4" t="n">
         <v>-1</v>
@@ -742,7 +742,7 @@
         <v>1.2</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5768384615384615</v>
+        <v>0.6089285714285714</v>
       </c>
       <c r="N5" t="n">
         <v>-1</v>
@@ -815,7 +815,7 @@
         <v>1.8</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8227983216783218</v>
+        <v>0.8685714285714284</v>
       </c>
       <c r="N6" t="n">
         <v>-1</v>
@@ -1253,7 +1253,7 @@
         <v>1.5</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5066705454545455</v>
+        <v>0.5348571428571428</v>
       </c>
       <c r="N12" t="n">
         <v>-1</v>
@@ -1399,7 +1399,7 @@
         <v>1.4</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6749517482517483</v>
+        <v>0.7125</v>
       </c>
       <c r="N14" t="n">
         <v>-1</v>
@@ -1472,7 +1472,7 @@
         <v>2.3</v>
       </c>
       <c r="M15" t="n">
-        <v>0.541856</v>
+        <v>0.572</v>
       </c>
       <c r="N15" t="n">
         <v>-1</v>
@@ -1545,7 +1545,7 @@
         <v>1.4</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3897465734265735</v>
+        <v>0.4114285714285714</v>
       </c>
       <c r="N16" t="n">
         <v>-1</v>
@@ -1618,7 +1618,7 @@
         <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>1.312958769230769</v>
+        <v>1.386</v>
       </c>
       <c r="N17" t="n">
         <v>1</v>
@@ -1691,7 +1691,7 @@
         <v>3.7</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5889503776223776</v>
+        <v>0.6217142857142857</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         <v>1.8</v>
       </c>
       <c r="M19" t="n">
-        <v>1.429070769230769</v>
+        <v>1.508571428571428</v>
       </c>
       <c r="N19" t="n">
         <v>1</v>
@@ -1837,7 +1837,7 @@
         <v>3.5</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6495776223776224</v>
+        <v>0.6857142857142858</v>
       </c>
       <c r="N20" t="n">
         <v>-1</v>
@@ -1910,7 +1910,7 @@
         <v>3.6</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5180381538461538</v>
+        <v>0.5468571428571428</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04906786013986</v>
+        <v>1.107428571428572</v>
       </c>
       <c r="N22" t="n">
         <v>-1</v>
@@ -2056,7 +2056,7 @@
         <v>3.1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5494344055944056</v>
+        <v>0.58</v>
       </c>
       <c r="N23" t="n">
         <v>-1</v>
@@ -2129,7 +2129,7 @@
         <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5180381538461538</v>
+        <v>0.5468571428571428</v>
       </c>
       <c r="N24" t="n">
         <v>-1</v>
@@ -2202,7 +2202,7 @@
         <v>3.5</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5553888671328672</v>
+        <v>0.5862857142857142</v>
       </c>
       <c r="N25" t="n">
         <v>-1</v>
@@ -2275,7 +2275,7 @@
         <v>3.1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4238493986013986</v>
+        <v>0.4474285714285714</v>
       </c>
       <c r="N26" t="n">
         <v>-1</v>
@@ -2348,7 +2348,7 @@
         <v>2.1</v>
       </c>
       <c r="M27" t="n">
-        <v>1.130265062937063</v>
+        <v>1.193142857142857</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>2.3</v>
       </c>
       <c r="M28" t="n">
-        <v>0.3100718181818182</v>
+        <v>0.3273214285714286</v>
       </c>
       <c r="N28" t="n">
         <v>-1</v>
@@ -2494,7 +2494,7 @@
         <v>2.5</v>
       </c>
       <c r="M29" t="n">
-        <v>0.4384648951048951</v>
+        <v>0.4628571428571429</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>1.8</v>
       </c>
       <c r="M30" t="n">
-        <v>0.9094086713286713</v>
+        <v>0.96</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>1.121604027972028</v>
+        <v>1.184</v>
       </c>
       <c r="N31" t="n">
         <v>-1</v>
@@ -2713,7 +2713,7 @@
         <v>4.3</v>
       </c>
       <c r="M32" t="n">
-        <v>1.312958769230769</v>
+        <v>1.386</v>
       </c>
       <c r="N32" t="n">
         <v>1</v>
@@ -2786,7 +2786,7 @@
         <v>4.1</v>
       </c>
       <c r="M33" t="n">
-        <v>1.591465174825175</v>
+        <v>1.68</v>
       </c>
       <c r="N33" t="n">
         <v>1</v>
@@ -2859,7 +2859,7 @@
         <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>1.214710153846154</v>
+        <v>1.282285714285714</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>3.6</v>
       </c>
       <c r="M35" t="n">
-        <v>0.9938537622377622</v>
+        <v>1.049142857142857</v>
       </c>
       <c r="N35" t="n">
         <v>1</v>
@@ -3005,7 +3005,7 @@
         <v>3.8</v>
       </c>
       <c r="M36" t="n">
-        <v>1.250436923076923</v>
+        <v>1.32</v>
       </c>
       <c r="N36" t="n">
         <v>1</v>
@@ -3078,7 +3078,7 @@
         <v>2.8</v>
       </c>
       <c r="M37" t="n">
-        <v>1.645596643356644</v>
+        <v>1.737142857142857</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3151,7 +3151,7 @@
         <v>3.7</v>
       </c>
       <c r="M38" t="n">
-        <v>1.308898909090909</v>
+        <v>1.381714285714286</v>
       </c>
       <c r="N38" t="n">
         <v>1</v>
@@ -3224,7 +3224,7 @@
         <v>2.7</v>
       </c>
       <c r="M39" t="n">
-        <v>1.295907356643357</v>
+        <v>1.368</v>
       </c>
       <c r="N39" t="n">
         <v>1</v>
@@ -3297,7 +3297,7 @@
         <v>2.8</v>
       </c>
       <c r="M40" t="n">
-        <v>1.091290405594406</v>
+        <v>1.152</v>
       </c>
       <c r="N40" t="n">
         <v>1</v>
@@ -3370,7 +3370,7 @@
         <v>2.5</v>
       </c>
       <c r="M41" t="n">
-        <v>0.9018302657342657</v>
+        <v>0.952</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>2.9</v>
       </c>
       <c r="M42" t="n">
-        <v>1.242317202797203</v>
+        <v>1.311428571428572</v>
       </c>
       <c r="N42" t="n">
         <v>1</v>
@@ -3516,7 +3516,7 @@
         <v>2.7</v>
       </c>
       <c r="M43" t="n">
-        <v>0.9816741818181818</v>
+        <v>1.036285714285714</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -3589,7 +3589,7 @@
         <v>3.1</v>
       </c>
       <c r="M44" t="n">
-        <v>1.472511272727273</v>
+        <v>1.554428571428571</v>
       </c>
       <c r="N44" t="n">
         <v>1</v>
@@ -3662,7 +3662,7 @@
         <v>2.8</v>
       </c>
       <c r="M45" t="n">
-        <v>1.527319384615385</v>
+        <v>1.612285714285714</v>
       </c>
       <c r="N45" t="n">
         <v>1</v>
@@ -3735,7 +3735,7 @@
         <v>3.5</v>
       </c>
       <c r="M46" t="n">
-        <v>1.121604027972028</v>
+        <v>1.184</v>
       </c>
       <c r="N46" t="n">
         <v>1</v>
@@ -3808,7 +3808,7 @@
         <v>2.3</v>
       </c>
       <c r="M47" t="n">
-        <v>1.388472167832168</v>
+        <v>1.465714285714286</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -3881,7 +3881,7 @@
         <v>3.1</v>
       </c>
       <c r="M48" t="n">
-        <v>1.393344</v>
+        <v>1.470857142857143</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>3.9</v>
       </c>
       <c r="M49" t="n">
-        <v>1.242317202797203</v>
+        <v>1.311428571428572</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>2.7</v>
       </c>
       <c r="M50" t="n">
-        <v>0.8038523076923078</v>
+        <v>0.8485714285714286</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>2.8</v>
       </c>
       <c r="M51" t="n">
-        <v>1.164097230769231</v>
+        <v>1.228857142857143</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>4.6</v>
       </c>
       <c r="M52" t="n">
-        <v>1.894601398601399</v>
+        <v>2</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -4246,7 +4246,7 @@
         <v>3.8</v>
       </c>
       <c r="M53" t="n">
-        <v>1.872678153846154</v>
+        <v>1.976857142857143</v>
       </c>
       <c r="N53" t="n">
         <v>1</v>
@@ -4319,7 +4319,7 @@
         <v>3.8</v>
       </c>
       <c r="M54" t="n">
-        <v>1.520011636363636</v>
+        <v>1.604571428571429</v>
       </c>
       <c r="N54" t="n">
         <v>-1</v>
@@ -4392,7 +4392,7 @@
         <v>4.3</v>
       </c>
       <c r="M55" t="n">
-        <v>1.799871328671329</v>
+        <v>1.9</v>
       </c>
       <c r="N55" t="n">
         <v>-1</v>
@@ -4465,7 +4465,7 @@
         <v>4.2</v>
       </c>
       <c r="M56" t="n">
-        <v>0.9615102097902097</v>
+        <v>1.015</v>
       </c>
       <c r="N56" t="n">
         <v>1</v>
@@ -4538,7 +4538,7 @@
         <v>4.2</v>
       </c>
       <c r="M57" t="n">
-        <v>1.607704615384616</v>
+        <v>1.697142857142857</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -4611,7 +4611,7 @@
         <v>3.1</v>
       </c>
       <c r="M58" t="n">
-        <v>1.136760839160839</v>
+        <v>1.2</v>
       </c>
       <c r="N58" t="n">
         <v>-1</v>
@@ -4684,7 +4684,7 @@
         <v>2.8</v>
       </c>
       <c r="M59" t="n">
-        <v>1.836680727272727</v>
+        <v>1.938857142857143</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>3.8</v>
       </c>
       <c r="M60" t="n">
-        <v>1.388472167832168</v>
+        <v>1.465714285714286</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>4.3</v>
       </c>
       <c r="M61" t="n">
-        <v>1.902721118881119</v>
+        <v>2.008571428571428</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -4903,7 +4903,7 @@
         <v>3.3</v>
       </c>
       <c r="M62" t="n">
-        <v>1.115920223776224</v>
+        <v>1.178</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -4976,7 +4976,7 @@
         <v>2.3</v>
       </c>
       <c r="M63" t="n">
-        <v>0.7353760000000001</v>
+        <v>0.7762857142857144</v>
       </c>
       <c r="N63" t="n">
         <v>-1</v>
@@ -5049,7 +5049,7 @@
         <v>3.3</v>
       </c>
       <c r="M64" t="n">
-        <v>0.8809896503496504</v>
+        <v>0.93</v>
       </c>
       <c r="N64" t="n">
         <v>1</v>
@@ -5122,7 +5122,7 @@
         <v>4</v>
       </c>
       <c r="M65" t="n">
-        <v>0.6991079160839162</v>
+        <v>0.738</v>
       </c>
       <c r="N65" t="n">
         <v>-1</v>
@@ -5195,7 +5195,7 @@
         <v>2.5</v>
       </c>
       <c r="M66" t="n">
-        <v>0.4793341538461538</v>
+        <v>0.506</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -5268,7 +5268,7 @@
         <v>3.8</v>
       </c>
       <c r="M67" t="n">
-        <v>2.026682181818182</v>
+        <v>2.139428571428571</v>
       </c>
       <c r="N67" t="n">
         <v>1</v>
@@ -5341,7 +5341,7 @@
         <v>4.7</v>
       </c>
       <c r="M68" t="n">
-        <v>2.058349090909091</v>
+        <v>2.172857142857143</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -5414,7 +5414,7 @@
         <v>3.9</v>
       </c>
       <c r="M69" t="n">
-        <v>1.836680727272727</v>
+        <v>1.938857142857143</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -5487,7 +5487,7 @@
         <v>4.3</v>
       </c>
       <c r="M70" t="n">
-        <v>2.139275636363636</v>
+        <v>2.258285714285714</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -5560,7 +5560,7 @@
         <v>3.4</v>
       </c>
       <c r="M71" t="n">
-        <v>1.710013090909091</v>
+        <v>1.805142857142857</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -5633,7 +5633,7 @@
         <v>4.2</v>
       </c>
       <c r="M72" t="n">
-        <v>2.142794181818182</v>
+        <v>2.262</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>3.4</v>
       </c>
       <c r="M73" t="n">
-        <v>1.545994741258741</v>
+        <v>1.632</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -5779,7 +5779,7 @@
         <v>4</v>
       </c>
       <c r="M74" t="n">
-        <v>1.964972307692308</v>
+        <v>2.074285714285714</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -5852,7 +5852,7 @@
         <v>2.8</v>
       </c>
       <c r="M75" t="n">
-        <v>1.108341818181818</v>
+        <v>1.17</v>
       </c>
       <c r="N75" t="n">
         <v>-1</v>
@@ -5925,7 +5925,7 @@
         <v>3.5</v>
       </c>
       <c r="M76" t="n">
-        <v>2.195572363636364</v>
+        <v>2.317714285714286</v>
       </c>
       <c r="N76" t="n">
         <v>-1</v>
@@ -5998,7 +5998,7 @@
         <v>3</v>
       </c>
       <c r="M77" t="n">
-        <v>1.250436923076923</v>
+        <v>1.32</v>
       </c>
       <c r="N77" t="n">
         <v>1</v>
@@ -6071,7 +6071,7 @@
         <v>4.5</v>
       </c>
       <c r="M78" t="n">
-        <v>1.107529846153846</v>
+        <v>1.169142857142857</v>
       </c>
       <c r="N78" t="n">
         <v>1</v>
@@ -6144,7 +6144,7 @@
         <v>2.2</v>
       </c>
       <c r="M79" t="n">
-        <v>0.8550065454545455</v>
+        <v>0.9025714285714286</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -6217,7 +6217,7 @@
         <v>3.7</v>
       </c>
       <c r="M80" t="n">
-        <v>0.6512692307692307</v>
+        <v>0.6875</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -6290,7 +6290,7 @@
         <v>4.2</v>
       </c>
       <c r="M81" t="n">
-        <v>0.8336246153846154</v>
+        <v>0.88</v>
       </c>
       <c r="N81" t="n">
         <v>1</v>
@@ -6363,7 +6363,7 @@
         <v>2.7</v>
       </c>
       <c r="M82" t="n">
-        <v>0.9378276923076923</v>
+        <v>0.99</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -6436,7 +6436,7 @@
         <v>4.3</v>
       </c>
       <c r="M83" t="n">
-        <v>2.072964587412588</v>
+        <v>2.188285714285714</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -6509,7 +6509,7 @@
         <v>2.5</v>
       </c>
       <c r="M84" t="n">
-        <v>1.018212923076923</v>
+        <v>1.074857142857143</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
@@ -6582,7 +6582,7 @@
         <v>3.4</v>
       </c>
       <c r="M85" t="n">
-        <v>1.695397594405595</v>
+        <v>1.789714285714286</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
@@ -6655,7 +6655,7 @@
         <v>4.3</v>
       </c>
       <c r="M86" t="n">
-        <v>1.553573146853147</v>
+        <v>1.64</v>
       </c>
       <c r="N86" t="n">
         <v>-1</v>
@@ -6728,7 +6728,7 @@
         <v>2.3</v>
       </c>
       <c r="M87" t="n">
-        <v>1.020378181818182</v>
+        <v>1.077142857142857</v>
       </c>
       <c r="N87" t="n">
         <v>-1</v>
@@ -6801,7 +6801,7 @@
         <v>2.9</v>
       </c>
       <c r="M88" t="n">
-        <v>0.8282114685314685</v>
+        <v>0.8742857142857141</v>
       </c>
       <c r="N88" t="n">
         <v>0</v>
@@ -6874,7 +6874,7 @@
         <v>3.5</v>
       </c>
       <c r="M89" t="n">
-        <v>1.061382769230769</v>
+        <v>1.120428571428571</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>4.2</v>
       </c>
       <c r="M90" t="n">
-        <v>0.8117690349650349</v>
+        <v>0.8569285714285714</v>
       </c>
       <c r="N90" t="n">
         <v>1</v>
@@ -7020,7 +7020,7 @@
         <v>2.5</v>
       </c>
       <c r="M91" t="n">
-        <v>1.400820909090909</v>
+        <v>1.47875</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -7093,7 +7093,7 @@
         <v>2.4</v>
       </c>
       <c r="M92" t="n">
-        <v>0.841203020979021</v>
+        <v>0.888</v>
       </c>
       <c r="N92" t="n">
         <v>1</v>
@@ -7166,7 +7166,7 @@
         <v>3.6</v>
       </c>
       <c r="M93" t="n">
-        <v>1.364113006993007</v>
+        <v>1.44</v>
       </c>
       <c r="N93" t="n">
         <v>1</v>
@@ -7239,7 +7239,7 @@
         <v>2.2</v>
       </c>
       <c r="M94" t="n">
-        <v>0.7928906853146853</v>
+        <v>0.837</v>
       </c>
       <c r="N94" t="n">
         <v>1</v>
@@ -7312,7 +7312,7 @@
         <v>2.8</v>
       </c>
       <c r="M95" t="n">
-        <v>1.208755692307692</v>
+        <v>1.276</v>
       </c>
       <c r="N95" t="n">
         <v>1</v>
@@ -7385,7 +7385,7 @@
         <v>3.2</v>
       </c>
       <c r="M96" t="n">
-        <v>1.229596307692308</v>
+        <v>1.298</v>
       </c>
       <c r="N96" t="n">
         <v>1</v>
@@ -7458,7 +7458,7 @@
         <v>2.5</v>
       </c>
       <c r="M97" t="n">
-        <v>1.27317213986014</v>
+        <v>1.344</v>
       </c>
       <c r="N97" t="n">
         <v>1</v>
@@ -7531,7 +7531,7 @@
         <v>4.1</v>
       </c>
       <c r="M98" t="n">
-        <v>2.308165818181819</v>
+        <v>2.436571428571429</v>
       </c>
       <c r="N98" t="n">
         <v>1</v>
@@ -7604,7 +7604,7 @@
         <v>2.3</v>
       </c>
       <c r="M99" t="n">
-        <v>1.118491468531469</v>
+        <v>1.180714285714286</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
@@ -7677,7 +7677,7 @@
         <v>3.2</v>
       </c>
       <c r="M100" t="n">
-        <v>1.705141258741259</v>
+        <v>1.8</v>
       </c>
       <c r="N100" t="n">
         <v>1</v>
@@ -7750,7 +7750,7 @@
         <v>2.8</v>
       </c>
       <c r="M101" t="n">
-        <v>0.8306473846153846</v>
+        <v>0.8768571428571428</v>
       </c>
       <c r="N101" t="n">
         <v>1</v>
@@ -7823,7 +7823,7 @@
         <v>2.6</v>
       </c>
       <c r="M102" t="n">
-        <v>1.091290405594406</v>
+        <v>1.152</v>
       </c>
       <c r="N102" t="n">
         <v>1</v>
@@ -7896,7 +7896,7 @@
         <v>3</v>
       </c>
       <c r="M103" t="n">
-        <v>1.307274965034965</v>
+        <v>1.38</v>
       </c>
       <c r="N103" t="n">
         <v>1</v>
@@ -7969,7 +7969,7 @@
         <v>3.1</v>
       </c>
       <c r="M104" t="n">
-        <v>1.007927944055944</v>
+        <v>1.064</v>
       </c>
       <c r="N104" t="n">
         <v>1</v>
@@ -8042,7 +8042,7 @@
         <v>3.8</v>
       </c>
       <c r="M105" t="n">
-        <v>0.9851927272727273</v>
+        <v>1.04</v>
       </c>
       <c r="N105" t="n">
         <v>1</v>
@@ -8115,7 +8115,7 @@
         <v>3</v>
       </c>
       <c r="M106" t="n">
-        <v>1.118491468531469</v>
+        <v>1.180714285714286</v>
       </c>
       <c r="N106" t="n">
         <v>1</v>
@@ -8188,7 +8188,7 @@
         <v>2.6</v>
       </c>
       <c r="M107" t="n">
-        <v>0.6266394125874126</v>
+        <v>0.6615</v>
       </c>
       <c r="N107" t="n">
         <v>0</v>
@@ -8261,7 +8261,7 @@
         <v>2.7</v>
       </c>
       <c r="M108" t="n">
-        <v>0.9183403636363637</v>
+        <v>0.9694285714285714</v>
       </c>
       <c r="N108" t="n">
         <v>1</v>
@@ -8334,7 +8334,7 @@
         <v>1.7</v>
       </c>
       <c r="M109" t="n">
-        <v>0.5565391608391609</v>
+        <v>0.5874999999999999</v>
       </c>
       <c r="N109" t="n">
         <v>1</v>
@@ -8407,7 +8407,7 @@
         <v>2.1</v>
       </c>
       <c r="M110" t="n">
-        <v>0.6157454545454546</v>
+        <v>0.65</v>
       </c>
       <c r="N110" t="n">
         <v>0</v>
@@ -8480,7 +8480,7 @@
         <v>2.5</v>
       </c>
       <c r="M111" t="n">
-        <v>0.7600058181818182</v>
+        <v>0.8022857142857143</v>
       </c>
       <c r="N111" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>2</v>
       </c>
       <c r="M112" t="n">
-        <v>0.5488930909090909</v>
+        <v>0.5794285714285714</v>
       </c>
       <c r="N112" t="n">
         <v>1</v>
@@ -8626,7 +8626,7 @@
         <v>3.5</v>
       </c>
       <c r="M113" t="n">
-        <v>1.731124363636364</v>
+        <v>1.827428571428571</v>
       </c>
       <c r="N113" t="n">
         <v>1</v>
@@ -8699,7 +8699,7 @@
         <v>2</v>
       </c>
       <c r="M114" t="n">
-        <v>0.3921824895104896</v>
+        <v>0.414</v>
       </c>
       <c r="N114" t="n">
         <v>1</v>
@@ -8772,7 +8772,7 @@
         <v>2.3</v>
       </c>
       <c r="M115" t="n">
-        <v>0.9662467132867134</v>
+        <v>1.02</v>
       </c>
       <c r="N115" t="n">
         <v>1</v>
@@ -8845,7 +8845,7 @@
         <v>3.1</v>
       </c>
       <c r="M116" t="n">
-        <v>1.333664055944056</v>
+        <v>1.407857142857143</v>
       </c>
       <c r="N116" t="n">
         <v>1</v>
@@ -8918,7 +8918,7 @@
         <v>1.9</v>
       </c>
       <c r="M117" t="n">
-        <v>0.5911156363636364</v>
+        <v>0.624</v>
       </c>
       <c r="N117" t="n">
         <v>1</v>
@@ -8991,7 +8991,7 @@
         <v>2.7</v>
       </c>
       <c r="M118" t="n">
-        <v>0.9984549370629371</v>
+        <v>1.054</v>
       </c>
       <c r="N118" t="n">
         <v>1</v>
@@ -9064,7 +9064,7 @@
         <v>2.1</v>
       </c>
       <c r="M119" t="n">
-        <v>0.8809896503496504</v>
+        <v>0.93</v>
       </c>
       <c r="N119" t="n">
         <v>1</v>
@@ -9137,7 +9137,7 @@
         <v>2.3</v>
       </c>
       <c r="M120" t="n">
-        <v>0.7470142657342657</v>
+        <v>0.7885714285714285</v>
       </c>
       <c r="N120" t="n">
         <v>1</v>
@@ -9210,7 +9210,7 @@
         <v>1.9</v>
       </c>
       <c r="M121" t="n">
-        <v>0.5673654545454546</v>
+        <v>0.5989285714285714</v>
       </c>
       <c r="N121" t="n">
         <v>1</v>
@@ -9283,7 +9283,7 @@
         <v>2</v>
       </c>
       <c r="M122" t="n">
-        <v>0.2923099300699301</v>
+        <v>0.3085714285714286</v>
       </c>
       <c r="N122" t="n">
         <v>1</v>
@@ -9356,7 +9356,7 @@
         <v>2.5</v>
       </c>
       <c r="M123" t="n">
-        <v>0.7459993006993006</v>
+        <v>0.7875</v>
       </c>
       <c r="N123" t="n">
         <v>0</v>
@@ -9429,7 +9429,7 @@
         <v>2</v>
       </c>
       <c r="M124" t="n">
-        <v>0.3599742657342657</v>
+        <v>0.3799999999999999</v>
       </c>
       <c r="N124" t="n">
         <v>1</v>
@@ -9502,7 +9502,7 @@
         <v>2.2</v>
       </c>
       <c r="M125" t="n">
-        <v>0.3978662937062937</v>
+        <v>0.42</v>
       </c>
       <c r="N125" t="n">
         <v>1</v>
@@ -9575,7 +9575,7 @@
         <v>2.4</v>
       </c>
       <c r="M126" t="n">
-        <v>0.6593212867132867</v>
+        <v>0.696</v>
       </c>
       <c r="N126" t="n">
         <v>0</v>
@@ -9648,7 +9648,7 @@
         <v>1.8</v>
       </c>
       <c r="M127" t="n">
-        <v>0.4139704055944057</v>
+        <v>0.437</v>
       </c>
       <c r="N127" t="n">
         <v>1</v>
@@ -9721,7 +9721,7 @@
         <v>3.2</v>
       </c>
       <c r="M128" t="n">
-        <v>1.587405314685315</v>
+        <v>1.675714285714285</v>
       </c>
       <c r="N128" t="n">
         <v>1</v>
@@ -9794,7 +9794,7 @@
         <v>2.5</v>
       </c>
       <c r="M129" t="n">
-        <v>0.7338873846153846</v>
+        <v>0.7747142857142857</v>
       </c>
       <c r="N129" t="n">
         <v>0</v>
@@ -9867,7 +9867,7 @@
         <v>2.3</v>
       </c>
       <c r="M130" t="n">
-        <v>0.6861163636363636</v>
+        <v>0.7242857142857142</v>
       </c>
       <c r="N130" t="n">
         <v>0</v>
@@ -9940,7 +9940,7 @@
         <v>2.3</v>
       </c>
       <c r="M131" t="n">
-        <v>1.012258461538462</v>
+        <v>1.068571428571429</v>
       </c>
       <c r="N131" t="n">
         <v>1</v>
@@ -10013,7 +10013,7 @@
         <v>1.3</v>
       </c>
       <c r="M132" t="n">
-        <v>0.3789202797202797</v>
+        <v>0.4</v>
       </c>
       <c r="N132" t="n">
         <v>0</v>
@@ -10086,7 +10086,7 @@
         <v>2.7</v>
       </c>
       <c r="M133" t="n">
-        <v>0.9183403636363637</v>
+        <v>0.9694285714285714</v>
       </c>
       <c r="N133" t="n">
         <v>0</v>
@@ -10159,7 +10159,7 @@
         <v>2</v>
       </c>
       <c r="M134" t="n">
-        <v>0.6896349090909091</v>
+        <v>0.728</v>
       </c>
       <c r="N134" t="n">
         <v>1</v>
@@ -10232,7 +10232,7 @@
         <v>1.8</v>
       </c>
       <c r="M135" t="n">
-        <v>0.6100616503496504</v>
+        <v>0.644</v>
       </c>
       <c r="N135" t="n">
         <v>-1</v>
@@ -10305,7 +10305,7 @@
         <v>1.9</v>
       </c>
       <c r="M136" t="n">
-        <v>0.5835372307692308</v>
+        <v>0.6159999999999999</v>
       </c>
       <c r="N136" t="n">
         <v>1</v>
@@ -10378,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="M137" t="n">
-        <v>0.3349384615384615</v>
+        <v>0.3535714285714286</v>
       </c>
       <c r="N137" t="n">
         <v>-1</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="M138" t="n">
-        <v>0.4628240559440559</v>
+        <v>0.4885714285714285</v>
       </c>
       <c r="N138" t="n">
         <v>-1</v>
@@ -10524,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="M139" t="n">
-        <v>0.4302098461538462</v>
+        <v>0.4541428571428572</v>
       </c>
       <c r="N139" t="n">
         <v>-1</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1794458181818182</v>
+        <v>0.1894285714285714</v>
       </c>
       <c r="N140" t="n">
         <v>-1</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="M141" t="n">
-        <v>0.5555918601398602</v>
+        <v>0.5865</v>
       </c>
       <c r="N141" t="n">
         <v>-1</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="M142" t="n">
-        <v>0.2415616783216784</v>
+        <v>0.255</v>
       </c>
       <c r="N142" t="n">
         <v>-1</v>
@@ -10816,7 +10816,7 @@
         <v>0</v>
       </c>
       <c r="M143" t="n">
-        <v>1.487126769230769</v>
+        <v>1.569857142857143</v>
       </c>
       <c r="N143" t="n">
         <v>-1</v>
@@ -10889,7 +10889,7 @@
         <v>0</v>
       </c>
       <c r="M144" t="n">
-        <v>0.5359015384615385</v>
+        <v>0.5657142857142857</v>
       </c>
       <c r="N144" t="n">
         <v>-1</v>
@@ -10962,7 +10962,7 @@
         <v>0</v>
       </c>
       <c r="M145" t="n">
-        <v>0.6597272727272727</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="N145" t="n">
         <v>-1</v>
@@ -11035,7 +11035,7 @@
         <v>0</v>
       </c>
       <c r="M146" t="n">
-        <v>0.8972290909090909</v>
+        <v>0.9471428571428571</v>
       </c>
       <c r="N146" t="n">
         <v>-1</v>
@@ -11108,7 +11108,7 @@
         <v>0</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1851296223776224</v>
+        <v>0.1954285714285714</v>
       </c>
       <c r="N147" t="n">
         <v>-1</v>
@@ -11181,7 +11181,7 @@
         <v>0</v>
       </c>
       <c r="M148" t="n">
-        <v>1.234197482517482</v>
+        <v>1.302857142857143</v>
       </c>
       <c r="N148" t="n">
         <v>-1</v>
@@ -11254,7 +11254,7 @@
         <v>0</v>
       </c>
       <c r="M149" t="n">
-        <v>0.6896349090909091</v>
+        <v>0.728</v>
       </c>
       <c r="N149" t="n">
         <v>-1</v>
@@ -11327,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="M150" t="n">
-        <v>0.4763569230769231</v>
+        <v>0.5028571428571429</v>
       </c>
       <c r="N150" t="n">
         <v>-1</v>
@@ -11400,7 +11400,7 @@
         <v>0</v>
       </c>
       <c r="M151" t="n">
-        <v>0.3978662937062937</v>
+        <v>0.42</v>
       </c>
       <c r="N151" t="n">
         <v>-1</v>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="M152" t="n">
-        <v>0.7307748251748252</v>
+        <v>0.7714285714285714</v>
       </c>
       <c r="N152" t="n">
         <v>-1</v>
@@ -11546,7 +11546,7 @@
         <v>0</v>
       </c>
       <c r="M153" t="n">
-        <v>0.2387197762237762</v>
+        <v>0.252</v>
       </c>
       <c r="N153" t="n">
         <v>-1</v>
@@ -11619,7 +11619,7 @@
         <v>0</v>
       </c>
       <c r="M154" t="n">
-        <v>0.52453393006993</v>
+        <v>0.5537142857142858</v>
       </c>
       <c r="N154" t="n">
         <v>-1</v>
@@ -11692,7 +11692,7 @@
         <v>0</v>
       </c>
       <c r="M155" t="n">
-        <v>0.5555918601398602</v>
+        <v>0.5865</v>
       </c>
       <c r="N155" t="n">
         <v>-1</v>
@@ -11765,7 +11765,7 @@
         <v>0</v>
       </c>
       <c r="M156" t="n">
-        <v>0.6349621258741258</v>
+        <v>0.6702857142857143</v>
       </c>
       <c r="N156" t="n">
         <v>-1</v>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="M157" t="n">
-        <v>0.8834255664335664</v>
+        <v>0.9325714285714286</v>
       </c>
       <c r="N157" t="n">
         <v>-1</v>
@@ -11911,7 +11911,7 @@
         <v>0</v>
       </c>
       <c r="M158" t="n">
-        <v>0.8866734545454544</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="N158" t="n">
         <v>-1</v>
@@ -11984,7 +11984,7 @@
         <v>0</v>
       </c>
       <c r="M159" t="n">
-        <v>0.7600058181818182</v>
+        <v>0.8022857142857143</v>
       </c>
       <c r="N159" t="n">
         <v>-1</v>
@@ -12057,7 +12057,7 @@
         <v>0</v>
       </c>
       <c r="M160" t="n">
-        <v>0.8221216783216784</v>
+        <v>0.8678571428571428</v>
       </c>
       <c r="N160" t="n">
         <v>-1</v>
@@ -12130,7 +12130,7 @@
         <v>0</v>
       </c>
       <c r="M161" t="n">
-        <v>0.7600058181818182</v>
+        <v>0.8022857142857143</v>
       </c>
       <c r="N161" t="n">
         <v>-1</v>
@@ -12203,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="M162" t="n">
-        <v>0.5399613986013987</v>
+        <v>0.57</v>
       </c>
       <c r="N162" t="n">
         <v>-1</v>
@@ -12276,7 +12276,7 @@
         <v>0</v>
       </c>
       <c r="M163" t="n">
-        <v>1.230340615384615</v>
+        <v>1.298785714285714</v>
       </c>
       <c r="N163" t="n">
         <v>-1</v>
@@ -12349,7 +12349,7 @@
         <v>0</v>
       </c>
       <c r="M164" t="n">
-        <v>0.579748027972028</v>
+        <v>0.612</v>
       </c>
       <c r="N164" t="n">
         <v>-1</v>
@@ -12422,7 +12422,7 @@
         <v>0</v>
       </c>
       <c r="M165" t="n">
-        <v>0.703709090909091</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="N165" t="n">
         <v>-1</v>
@@ -12495,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="M166" t="n">
-        <v>0.6631104895104896</v>
+        <v>0.7</v>
       </c>
       <c r="N166" t="n">
         <v>-1</v>
@@ -12568,7 +12568,7 @@
         <v>0</v>
       </c>
       <c r="M167" t="n">
-        <v>1.136760839160839</v>
+        <v>1.2</v>
       </c>
       <c r="N167" t="n">
         <v>-1</v>
@@ -12641,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="M168" t="n">
-        <v>0.3117972587412587</v>
+        <v>0.3291428571428571</v>
       </c>
       <c r="N168" t="n">
         <v>-1</v>
@@ -12714,7 +12714,7 @@
         <v>0</v>
       </c>
       <c r="M169" t="n">
-        <v>0.5981527272727273</v>
+        <v>0.6314285714285713</v>
       </c>
       <c r="N169" t="n">
         <v>-1</v>
@@ -12787,7 +12787,7 @@
         <v>0</v>
       </c>
       <c r="M170" t="n">
-        <v>0.6625691748251749</v>
+        <v>0.6994285714285714</v>
       </c>
       <c r="N170" t="n">
         <v>-1</v>
@@ -12860,7 +12860,7 @@
         <v>0</v>
       </c>
       <c r="M171" t="n">
-        <v>0.6901762237762238</v>
+        <v>0.7285714285714285</v>
       </c>
       <c r="N171" t="n">
         <v>-1</v>
@@ -12933,7 +12933,7 @@
         <v>0</v>
       </c>
       <c r="M172" t="n">
-        <v>0.9938537622377622</v>
+        <v>1.049142857142857</v>
       </c>
       <c r="N172" t="n">
         <v>-1</v>
@@ -13006,7 +13006,7 @@
         <v>0</v>
       </c>
       <c r="M173" t="n">
-        <v>1.034452363636364</v>
+        <v>1.092</v>
       </c>
       <c r="N173" t="n">
         <v>-1</v>
@@ -13079,7 +13079,7 @@
         <v>0</v>
       </c>
       <c r="M174" t="n">
-        <v>0.7916727272727273</v>
+        <v>0.8357142857142857</v>
       </c>
       <c r="N174" t="n">
         <v>-1</v>
@@ -13152,7 +13152,7 @@
         <v>0</v>
       </c>
       <c r="M175" t="n">
-        <v>0.8830195804195804</v>
+        <v>0.9321428571428571</v>
       </c>
       <c r="N175" t="n">
         <v>-1</v>
@@ -13225,7 +13225,7 @@
         <v>0</v>
       </c>
       <c r="M176" t="n">
-        <v>0.8184678041958042</v>
+        <v>0.864</v>
       </c>
       <c r="N176" t="n">
         <v>-1</v>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="M177" t="n">
-        <v>0.6252184615384615</v>
+        <v>0.66</v>
       </c>
       <c r="N177" t="n">
         <v>-1</v>
@@ -13371,7 +13371,7 @@
         <v>0</v>
       </c>
       <c r="M178" t="n">
-        <v>1.311334825174825</v>
+        <v>1.384285714285714</v>
       </c>
       <c r="N178" t="n">
         <v>-1</v>
@@ -13444,7 +13444,7 @@
         <v>0</v>
       </c>
       <c r="M179" t="n">
-        <v>0.6878756363636364</v>
+        <v>0.7261428571428572</v>
       </c>
       <c r="N179" t="n">
         <v>-1</v>
@@ -13517,7 +13517,7 @@
         <v>0</v>
       </c>
       <c r="M180" t="n">
-        <v>0.7318574545454546</v>
+        <v>0.7725714285714285</v>
       </c>
       <c r="N180" t="n">
         <v>-1</v>
@@ -13590,7 +13590,7 @@
         <v>0</v>
       </c>
       <c r="M181" t="n">
-        <v>0.7673135664335665</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N181" t="n">
         <v>-1</v>
@@ -13663,7 +13663,7 @@
         <v>0</v>
       </c>
       <c r="M182" t="n">
-        <v>1.388472167832168</v>
+        <v>1.465714285714286</v>
       </c>
       <c r="N182" t="n">
         <v>-1</v>
@@ -13736,7 +13736,7 @@
         <v>0</v>
       </c>
       <c r="M183" t="n">
-        <v>0.3726951608391608</v>
+        <v>0.3934285714285713</v>
       </c>
       <c r="N183" t="n">
         <v>-1</v>
@@ -13809,7 +13809,7 @@
         <v>0</v>
       </c>
       <c r="M184" t="n">
-        <v>0.6763726993006993</v>
+        <v>0.714</v>
       </c>
       <c r="N184" t="n">
         <v>-1</v>
@@ -13882,7 +13882,7 @@
         <v>0</v>
       </c>
       <c r="M185" t="n">
-        <v>0.8374138181818181</v>
+        <v>0.884</v>
       </c>
       <c r="N185" t="n">
         <v>-1</v>
@@ -13955,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="M186" t="n">
-        <v>0.9317379020979022</v>
+        <v>0.9835714285714284</v>
       </c>
       <c r="N186" t="n">
         <v>-1</v>
@@ -14028,7 +14028,7 @@
         <v>0</v>
       </c>
       <c r="M187" t="n">
-        <v>1.150293706293706</v>
+        <v>1.214285714285714</v>
       </c>
       <c r="N187" t="n">
         <v>-1</v>
@@ -14101,7 +14101,7 @@
         <v>0</v>
       </c>
       <c r="M188" t="n">
-        <v>1.217958041958042</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="N188" t="n">
         <v>-1</v>
@@ -14174,7 +14174,7 @@
         <v>0</v>
       </c>
       <c r="M189" t="n">
-        <v>0.8796363636363635</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="N189" t="n">
         <v>-1</v>
@@ -14247,7 +14247,7 @@
         <v>0</v>
       </c>
       <c r="M190" t="n">
-        <v>1.006845314685315</v>
+        <v>1.062857142857143</v>
       </c>
       <c r="N190" t="n">
         <v>-1</v>
@@ -14320,7 +14320,7 @@
         <v>0</v>
       </c>
       <c r="M191" t="n">
-        <v>1.004680055944056</v>
+        <v>1.060571428571429</v>
       </c>
       <c r="N191" t="n">
         <v>-1</v>
@@ -14393,7 +14393,7 @@
         <v>0</v>
       </c>
       <c r="M192" t="n">
-        <v>0.8514879999999999</v>
+        <v>0.8988571428571429</v>
       </c>
       <c r="N192" t="n">
         <v>-1</v>
@@ -14466,7 +14466,7 @@
         <v>0</v>
       </c>
       <c r="M193" t="n">
-        <v>1.612170461538462</v>
+        <v>1.701857142857143</v>
       </c>
       <c r="N193" t="n">
         <v>-1</v>
@@ -14539,7 +14539,7 @@
         <v>0</v>
       </c>
       <c r="M194" t="n">
-        <v>0.779493146853147</v>
+        <v>0.8228571428571427</v>
       </c>
       <c r="N194" t="n">
         <v>-1</v>
@@ -14612,7 +14612,7 @@
         <v>0</v>
       </c>
       <c r="M195" t="n">
-        <v>0.9094086713286713</v>
+        <v>0.96</v>
       </c>
       <c r="N195" t="n">
         <v>-1</v>
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="M196" t="n">
-        <v>0.9340384895104895</v>
+        <v>0.9859999999999998</v>
       </c>
       <c r="N196" t="n">
         <v>-1</v>
@@ -14758,7 +14758,7 @@
         <v>0</v>
       </c>
       <c r="M197" t="n">
-        <v>1.542746853146853</v>
+        <v>1.628571428571428</v>
       </c>
       <c r="N197" t="n">
         <v>-1</v>
@@ -14831,7 +14831,7 @@
         <v>0</v>
       </c>
       <c r="M198" t="n">
-        <v>0.4871832167832168</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="N198" t="n">
         <v>-1</v>
@@ -14904,7 +14904,7 @@
         <v>0</v>
       </c>
       <c r="M199" t="n">
-        <v>1.067472559440559</v>
+        <v>1.126857142857143</v>
       </c>
       <c r="N199" t="n">
         <v>-1</v>
@@ -14977,7 +14977,7 @@
         <v>0</v>
       </c>
       <c r="M200" t="n">
-        <v>0.8995296783216783</v>
+        <v>0.9495714285714284</v>
       </c>
       <c r="N200" t="n">
         <v>-1</v>
@@ -15050,7 +15050,7 @@
         <v>0</v>
       </c>
       <c r="M201" t="n">
-        <v>1.092779020979021</v>
+        <v>1.153571428571429</v>
       </c>
       <c r="N201" t="n">
         <v>-1</v>
@@ -15123,7 +15123,7 @@
         <v>0</v>
       </c>
       <c r="M202" t="n">
-        <v>1.72544055944056</v>
+        <v>1.821428571428571</v>
       </c>
       <c r="N202" t="n">
         <v>-1</v>
@@ -15196,7 +15196,7 @@
         <v>0</v>
       </c>
       <c r="M203" t="n">
-        <v>1.964972307692308</v>
+        <v>2.074285714285714</v>
       </c>
       <c r="N203" t="n">
         <v>-1</v>
@@ -15269,7 +15269,7 @@
         <v>0</v>
       </c>
       <c r="M204" t="n">
-        <v>0.8796363636363635</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="N204" t="n">
         <v>-1</v>
@@ -15342,7 +15342,7 @@
         <v>0</v>
       </c>
       <c r="M205" t="n">
-        <v>1.059623496503497</v>
+        <v>1.118571428571429</v>
       </c>
       <c r="N205" t="n">
         <v>-1</v>
@@ -15415,7 +15415,7 @@
         <v>0</v>
       </c>
       <c r="M206" t="n">
-        <v>1.444227580419581</v>
+        <v>1.524571428571428</v>
       </c>
       <c r="N206" t="n">
         <v>-1</v>
@@ -15488,7 +15488,7 @@
         <v>0</v>
       </c>
       <c r="M207" t="n">
-        <v>1.286163692307692</v>
+        <v>1.357714285714286</v>
       </c>
       <c r="N207" t="n">
         <v>-1</v>
@@ -15561,7 +15561,7 @@
         <v>0</v>
       </c>
       <c r="M208" t="n">
-        <v>2.249839160839161</v>
+        <v>2.375</v>
       </c>
       <c r="N208" t="n">
         <v>-1</v>
@@ -15634,7 +15634,7 @@
         <v>0</v>
       </c>
       <c r="M209" t="n">
-        <v>1.403087664335664</v>
+        <v>1.481142857142857</v>
       </c>
       <c r="N209" t="n">
         <v>-1</v>
@@ -15707,7 +15707,7 @@
         <v>0</v>
       </c>
       <c r="M210" t="n">
-        <v>1.818817342657343</v>
+        <v>1.92</v>
       </c>
       <c r="N210" t="n">
         <v>-1</v>
@@ -15780,7 +15780,7 @@
         <v>0</v>
       </c>
       <c r="M211" t="n">
-        <v>1.136760839160839</v>
+        <v>1.2</v>
       </c>
       <c r="N211" t="n">
         <v>-1</v>
@@ -15853,7 +15853,7 @@
         <v>0</v>
       </c>
       <c r="M212" t="n">
-        <v>1.542746853146853</v>
+        <v>1.628571428571428</v>
       </c>
       <c r="N212" t="n">
         <v>-1</v>
@@ -15926,7 +15926,7 @@
         <v>0</v>
       </c>
       <c r="M213" t="n">
-        <v>0.5359015384615385</v>
+        <v>0.5657142857142857</v>
       </c>
       <c r="N213" t="n">
         <v>-1</v>
@@ -15999,7 +15999,7 @@
         <v>0</v>
       </c>
       <c r="M214" t="n">
-        <v>1.067472559440559</v>
+        <v>1.126857142857143</v>
       </c>
       <c r="N214" t="n">
         <v>-1</v>
@@ -16072,7 +16072,7 @@
         <v>0</v>
       </c>
       <c r="M215" t="n">
-        <v>0.9259864335664337</v>
+        <v>0.9775</v>
       </c>
       <c r="N215" t="n">
         <v>-1</v>
@@ -16145,7 +16145,7 @@
         <v>0</v>
       </c>
       <c r="M216" t="n">
-        <v>1.092779020979021</v>
+        <v>1.153571428571429</v>
       </c>
       <c r="N216" t="n">
         <v>-1</v>
@@ -16218,7 +16218,7 @@
         <v>0</v>
       </c>
       <c r="M217" t="n">
-        <v>1.72544055944056</v>
+        <v>1.821428571428571</v>
       </c>
       <c r="N217" t="n">
         <v>-1</v>
@@ -16291,7 +16291,7 @@
         <v>0</v>
       </c>
       <c r="M218" t="n">
-        <v>1.964972307692308</v>
+        <v>2.074285714285714</v>
       </c>
       <c r="N218" t="n">
         <v>-1</v>
@@ -16364,7 +16364,7 @@
         <v>0</v>
       </c>
       <c r="M219" t="n">
-        <v>0.77408</v>
+        <v>0.8171428571428571</v>
       </c>
       <c r="N219" t="n">
         <v>-1</v>
@@ -16437,7 +16437,7 @@
         <v>0</v>
       </c>
       <c r="M220" t="n">
-        <v>1.079922797202797</v>
+        <v>1.14</v>
       </c>
       <c r="N220" t="n">
         <v>-1</v>
@@ -16510,7 +16510,7 @@
         <v>0</v>
       </c>
       <c r="M221" t="n">
-        <v>1.339753846153846</v>
+        <v>1.414285714285714</v>
       </c>
       <c r="N221" t="n">
         <v>-1</v>
@@ -16583,7 +16583,7 @@
         <v>0</v>
       </c>
       <c r="M222" t="n">
-        <v>1.376969230769231</v>
+        <v>1.453571428571429</v>
       </c>
       <c r="N222" t="n">
         <v>-1</v>
@@ -16656,7 +16656,7 @@
         <v>0</v>
       </c>
       <c r="M223" t="n">
-        <v>2.272980363636364</v>
+        <v>2.399428571428571</v>
       </c>
       <c r="N223" t="n">
         <v>-1</v>
@@ -16729,7 +16729,7 @@
         <v>0</v>
       </c>
       <c r="M224" t="n">
-        <v>1.801495272727273</v>
+        <v>1.901714285714285</v>
       </c>
       <c r="N224" t="n">
         <v>-1</v>
@@ -16802,7 +16802,7 @@
         <v>0</v>
       </c>
       <c r="M225" t="n">
-        <v>1.818817342657343</v>
+        <v>1.92</v>
       </c>
       <c r="N225" t="n">
         <v>-1</v>
@@ -16875,7 +16875,7 @@
         <v>0</v>
       </c>
       <c r="M226" t="n">
-        <v>1.136760839160839</v>
+        <v>1.2</v>
       </c>
       <c r="N226" t="n">
         <v>-1</v>
@@ -16948,7 +16948,7 @@
         <v>0</v>
       </c>
       <c r="M227" t="n">
-        <v>1.542746853146853</v>
+        <v>1.628571428571428</v>
       </c>
       <c r="N227" t="n">
         <v>-1</v>
@@ -17021,7 +17021,7 @@
         <v>0</v>
       </c>
       <c r="M228" t="n">
-        <v>0.5359015384615385</v>
+        <v>0.5657142857142857</v>
       </c>
       <c r="N228" t="n">
         <v>-1</v>
@@ -17094,7 +17094,7 @@
         <v>0</v>
       </c>
       <c r="M229" t="n">
-        <v>1.104281958041958</v>
+        <v>1.165714285714286</v>
       </c>
       <c r="N229" t="n">
         <v>-1</v>
@@ -17167,7 +17167,7 @@
         <v>0</v>
       </c>
       <c r="M230" t="n">
-        <v>0.9386396643356644</v>
+        <v>0.9908571428571428</v>
       </c>
       <c r="N230" t="n">
         <v>-1</v>
@@ -17240,7 +17240,7 @@
         <v>0</v>
       </c>
       <c r="M231" t="n">
-        <v>1.136490181818182</v>
+        <v>1.199714285714286</v>
       </c>
       <c r="N231" t="n">
         <v>-1</v>
@@ -17313,7 +17313,7 @@
         <v>0</v>
       </c>
       <c r="M232" t="n">
-        <v>1.782955244755245</v>
+        <v>1.882142857142857</v>
       </c>
       <c r="N232" t="n">
         <v>-1</v>
@@ -17386,7 +17386,7 @@
         <v>0</v>
       </c>
       <c r="M233" t="n">
-        <v>1.964972307692308</v>
+        <v>2.074285714285714</v>
       </c>
       <c r="N233" t="n">
         <v>-1</v>
@@ -17459,7 +17459,7 @@
         <v>0</v>
       </c>
       <c r="M234" t="n">
-        <v>0.8127840000000001</v>
+        <v>0.858</v>
       </c>
       <c r="N234" t="n">
         <v>-1</v>
@@ -17532,7 +17532,7 @@
         <v>0</v>
       </c>
       <c r="M235" t="n">
-        <v>0.9719305174825175</v>
+        <v>1.026</v>
       </c>
       <c r="N235" t="n">
         <v>-1</v>
@@ -17605,7 +17605,7 @@
         <v>0</v>
       </c>
       <c r="M236" t="n">
-        <v>1.339753846153846</v>
+        <v>1.414285714285714</v>
       </c>
       <c r="N236" t="n">
         <v>-1</v>
@@ -17678,7 +17678,7 @@
         <v>0</v>
       </c>
       <c r="M237" t="n">
-        <v>1.414184615384615</v>
+        <v>1.492857142857143</v>
       </c>
       <c r="N237" t="n">
         <v>-1</v>
@@ -17751,7 +17751,7 @@
         <v>0</v>
       </c>
       <c r="M238" t="n">
-        <v>2.272980363636364</v>
+        <v>2.399428571428571</v>
       </c>
       <c r="N238" t="n">
         <v>-1</v>
@@ -17824,7 +17824,7 @@
         <v>0</v>
       </c>
       <c r="M239" t="n">
-        <v>1.929245538461539</v>
+        <v>2.036571428571428</v>
       </c>
       <c r="N239" t="n">
         <v>-1</v>
@@ -17897,7 +17897,7 @@
         <v>0</v>
       </c>
       <c r="M240" t="n">
-        <v>1.818817342657343</v>
+        <v>1.92</v>
       </c>
       <c r="N240" t="n">
         <v>-1</v>
@@ -17970,7 +17970,7 @@
         <v>0</v>
       </c>
       <c r="M241" t="n">
-        <v>1.233385510489511</v>
+        <v>1.302</v>
       </c>
       <c r="N241" t="n">
         <v>-1</v>
@@ -18043,7 +18043,7 @@
         <v>0</v>
       </c>
       <c r="M242" t="n">
-        <v>1.16720979020979</v>
+        <v>1.232142857142857</v>
       </c>
       <c r="N242" t="n">
         <v>-1</v>
@@ -18116,7 +18116,7 @@
         <v>0</v>
       </c>
       <c r="M243" t="n">
-        <v>0.5626966153846155</v>
+        <v>0.594</v>
       </c>
       <c r="N243" t="n">
         <v>-1</v>
@@ -18189,7 +18189,7 @@
         <v>0</v>
       </c>
       <c r="M244" t="n">
-        <v>1.601208839160839</v>
+        <v>1.690285714285714</v>
       </c>
       <c r="N244" t="n">
         <v>-1</v>
@@ -18262,7 +18262,7 @@
         <v>0</v>
       </c>
       <c r="M245" t="n">
-        <v>0.9938537622377622</v>
+        <v>1.049142857142857</v>
       </c>
       <c r="N245" t="n">
         <v>-1</v>
@@ -18335,7 +18335,7 @@
         <v>0</v>
       </c>
       <c r="M246" t="n">
-        <v>1.076674909090909</v>
+        <v>1.136571428571428</v>
       </c>
       <c r="N246" t="n">
         <v>-1</v>
@@ -18408,7 +18408,7 @@
         <v>0</v>
       </c>
       <c r="M247" t="n">
-        <v>1.782955244755245</v>
+        <v>1.882142857142857</v>
       </c>
       <c r="N247" t="n">
         <v>-1</v>
@@ -18481,7 +18481,7 @@
         <v>0</v>
       </c>
       <c r="M248" t="n">
-        <v>2.054289230769231</v>
+        <v>2.168571428571429</v>
       </c>
       <c r="N248" t="n">
         <v>-1</v>
@@ -18554,7 +18554,7 @@
         <v>0</v>
       </c>
       <c r="M249" t="n">
-        <v>0.7781736923076924</v>
+        <v>0.8214642857142856</v>
       </c>
       <c r="N249" t="n">
         <v>-1</v>
@@ -18627,7 +18627,7 @@
         <v>0</v>
       </c>
       <c r="M250" t="n">
-        <v>1.007927944055944</v>
+        <v>1.064</v>
       </c>
       <c r="N250" t="n">
         <v>-1</v>
@@ -18700,7 +18700,7 @@
         <v>0</v>
       </c>
       <c r="M251" t="n">
-        <v>1.384412307692308</v>
+        <v>1.461428571428572</v>
       </c>
       <c r="N251" t="n">
         <v>-1</v>
@@ -18773,7 +18773,7 @@
         <v>0</v>
       </c>
       <c r="M252" t="n">
-        <v>1.403899636363636</v>
+        <v>1.482</v>
       </c>
       <c r="N252" t="n">
         <v>-1</v>
@@ -18846,7 +18846,7 @@
         <v>0</v>
       </c>
       <c r="M253" t="n">
-        <v>2.557711888111888</v>
+        <v>2.7</v>
       </c>
       <c r="N253" t="n">
         <v>-1</v>
@@ -18919,7 +18919,7 @@
         <v>0</v>
       </c>
       <c r="M254" t="n">
-        <v>1.929245538461539</v>
+        <v>2.036571428571428</v>
       </c>
       <c r="N254" t="n">
         <v>-1</v>
@@ -18992,7 +18992,7 @@
         <v>0</v>
       </c>
       <c r="M255" t="n">
-        <v>1.227701706293706</v>
+        <v>1.296</v>
       </c>
       <c r="N255" t="n">
         <v>-1</v>
@@ -19065,7 +19065,7 @@
         <v>0</v>
       </c>
       <c r="M256" t="n">
-        <v>1.233385510489511</v>
+        <v>1.302</v>
       </c>
       <c r="N256" t="n">
         <v>-1</v>
@@ -19138,7 +19138,7 @@
         <v>0</v>
       </c>
       <c r="M257" t="n">
-        <v>1.315394685314685</v>
+        <v>1.388571428571428</v>
       </c>
       <c r="N257" t="n">
         <v>-1</v>
@@ -19211,7 +19211,7 @@
         <v>0</v>
       </c>
       <c r="M258" t="n">
-        <v>0.7283389090909091</v>
+        <v>0.7688571428571428</v>
       </c>
       <c r="N258" t="n">
         <v>-1</v>
@@ -19284,7 +19284,7 @@
         <v>0</v>
       </c>
       <c r="M259" t="n">
-        <v>1.601208839160839</v>
+        <v>1.690285714285714</v>
       </c>
       <c r="N259" t="n">
         <v>-1</v>
@@ -19357,7 +19357,7 @@
         <v>0</v>
       </c>
       <c r="M260" t="n">
-        <v>1.092779020979021</v>
+        <v>1.153571428571429</v>
       </c>
       <c r="N260" t="n">
         <v>-1</v>
@@ -19430,7 +19430,7 @@
         <v>0</v>
       </c>
       <c r="M261" t="n">
-        <v>1.242317202797203</v>
+        <v>1.311428571428572</v>
       </c>
       <c r="N261" t="n">
         <v>-1</v>
@@ -19503,7 +19503,7 @@
         <v>0</v>
       </c>
       <c r="M262" t="n">
-        <v>1.782955244755245</v>
+        <v>1.882142857142857</v>
       </c>
       <c r="N262" t="n">
         <v>-1</v>
@@ -19576,7 +19576,7 @@
         <v>0</v>
       </c>
       <c r="M263" t="n">
-        <v>2.208563916083917</v>
+        <v>2.331428571428571</v>
       </c>
       <c r="N263" t="n">
         <v>-1</v>
@@ -19649,7 +19649,7 @@
         <v>0</v>
       </c>
       <c r="M264" t="n">
-        <v>0.7388945454545455</v>
+        <v>0.78</v>
       </c>
       <c r="N264" t="n">
         <v>-1</v>
@@ -19722,7 +19722,7 @@
         <v>0</v>
       </c>
       <c r="M265" t="n">
-        <v>1.098868811188811</v>
+        <v>1.16</v>
       </c>
       <c r="N265" t="n">
         <v>-1</v>
@@ -19795,7 +19795,7 @@
         <v>0</v>
       </c>
       <c r="M266" t="n">
-        <v>1.540716923076923</v>
+        <v>1.626428571428571</v>
       </c>
       <c r="N266" t="n">
         <v>-1</v>
@@ -19868,7 +19868,7 @@
         <v>0</v>
       </c>
       <c r="M267" t="n">
-        <v>1.671038433566434</v>
+        <v>1.764</v>
       </c>
       <c r="N267" t="n">
         <v>-1</v>
@@ -19941,7 +19941,7 @@
         <v>0</v>
       </c>
       <c r="M268" t="n">
-        <v>2.904153286713287</v>
+        <v>3.065714285714285</v>
       </c>
       <c r="N268" t="n">
         <v>-1</v>
@@ -19959,7 +19959,7 @@
         <v>1</v>
       </c>
       <c r="S268" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T268" t="n">
         <v>-1</v>
@@ -19968,7 +19968,7 @@
         <v>-1</v>
       </c>
       <c r="V268" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W268" t="n">
         <v>-1</v>
@@ -20014,7 +20014,7 @@
         <v>0</v>
       </c>
       <c r="M269" t="n">
-        <v>2.060379020979021</v>
+        <v>2.175</v>
       </c>
       <c r="N269" t="n">
         <v>-1</v>
@@ -20087,7 +20087,7 @@
         <v>0</v>
       </c>
       <c r="M270" t="n">
-        <v>1.444227580419581</v>
+        <v>1.524571428571428</v>
       </c>
       <c r="N270" t="n">
         <v>-1</v>
@@ -20160,7 +20160,7 @@
         <v>0</v>
       </c>
       <c r="M271" t="n">
-        <v>1.438002461538461</v>
+        <v>1.518</v>
       </c>
       <c r="N271" t="n">
         <v>-1</v>

--- a/dataset/2nd_data/beak/beak_growth_detail_data.xlsx
+++ b/dataset/2nd_data/beak/beak_growth_detail_data.xlsx
@@ -369,7 +369,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>주차</t>
+          <t>날짜</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -429,65 +429,63 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>leaf_area</t>
+          <t>엽면적지수</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>suitable_growth_length</t>
+          <t>주간생육길이_생육상태</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>suitable_thickness</t>
+          <t>줄기굵기_생육상태</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>suitable_leaf_length</t>
+          <t>잎길이_생육상태</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>suitable_leaf_width</t>
+          <t>입폭_생육상태</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>suitable_number_of_leaf</t>
+          <t>입수_생육상태</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>suitable_leaf_area</t>
+          <t>엽면적지수_생육상태</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>suitable_flower_room</t>
+          <t>개화화방위치_생육상태</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>suitable_flower_distance</t>
+          <t>꽃과줄기거리_생육상태</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>growth_type_score</t>
+          <t>생육상태점수</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>growth_type</t>
+          <t>생장구분</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>6주(03/22)</t>
-        </is>
+      <c r="A2" t="n">
+        <v>20180322</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -557,10 +555,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>6주(03/22)</t>
-        </is>
+      <c r="A3" t="n">
+        <v>20180322</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -630,10 +626,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>6주(03/22)</t>
-        </is>
+      <c r="A4" t="n">
+        <v>20180322</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -703,10 +697,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>6주(03/22)</t>
-        </is>
+      <c r="A5" t="n">
+        <v>20180322</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -776,10 +768,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>6주(03/22)</t>
-        </is>
+      <c r="A6" t="n">
+        <v>20180322</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -849,10 +839,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6주(03/22)</t>
-        </is>
+      <c r="A7" t="n">
+        <v>20180322</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
@@ -922,10 +910,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>6주(03/22)</t>
-        </is>
+      <c r="A8" t="n">
+        <v>20180322</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
@@ -995,10 +981,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>6주(03/22)</t>
-        </is>
+      <c r="A9" t="n">
+        <v>20180322</v>
       </c>
       <c r="B9" t="n">
         <v>8</v>
@@ -1068,10 +1052,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>6주(03/22)</t>
-        </is>
+      <c r="A10" t="n">
+        <v>20180322</v>
       </c>
       <c r="B10" t="n">
         <v>9</v>
@@ -1141,10 +1123,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>6주(03/22)</t>
-        </is>
+      <c r="A11" t="n">
+        <v>20180322</v>
       </c>
       <c r="B11" t="n">
         <v>10</v>
@@ -1214,10 +1194,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>6주(03/22)</t>
-        </is>
+      <c r="A12" t="n">
+        <v>20180322</v>
       </c>
       <c r="B12" t="n">
         <v>11</v>
@@ -1287,10 +1265,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>6주(03/22)</t>
-        </is>
+      <c r="A13" t="n">
+        <v>20180322</v>
       </c>
       <c r="B13" t="n">
         <v>12</v>
@@ -1360,10 +1336,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>6주(03/22)</t>
-        </is>
+      <c r="A14" t="n">
+        <v>20180322</v>
       </c>
       <c r="B14" t="n">
         <v>13</v>
@@ -1433,10 +1407,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>6주(03/22)</t>
-        </is>
+      <c r="A15" t="n">
+        <v>20180322</v>
       </c>
       <c r="B15" t="n">
         <v>14</v>
@@ -1506,10 +1478,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>6주(03/22)</t>
-        </is>
+      <c r="A16" t="n">
+        <v>20180322</v>
       </c>
       <c r="B16" t="n">
         <v>15</v>
@@ -1579,10 +1549,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>7주(03/29)</t>
-        </is>
+      <c r="A17" t="n">
+        <v>20180329</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -1645,17 +1613,15 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>7주(03/29)</t>
-        </is>
+      <c r="A18" t="n">
+        <v>20180329</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
@@ -1718,17 +1684,15 @@
         <v>1</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>7주(03/29)</t>
-        </is>
+      <c r="A19" t="n">
+        <v>20180329</v>
       </c>
       <c r="B19" t="n">
         <v>3</v>
@@ -1791,17 +1755,15 @@
         <v>-1</v>
       </c>
       <c r="V19" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W19" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>7주(03/29)</t>
-        </is>
+      <c r="A20" t="n">
+        <v>20180329</v>
       </c>
       <c r="B20" t="n">
         <v>4</v>
@@ -1871,10 +1833,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>7주(03/29)</t>
-        </is>
+      <c r="A21" t="n">
+        <v>20180329</v>
       </c>
       <c r="B21" t="n">
         <v>5</v>
@@ -1937,17 +1897,15 @@
         <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>7주(03/29)</t>
-        </is>
+      <c r="A22" t="n">
+        <v>20180329</v>
       </c>
       <c r="B22" t="n">
         <v>6</v>
@@ -2017,10 +1975,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>7주(03/29)</t>
-        </is>
+      <c r="A23" t="n">
+        <v>20180329</v>
       </c>
       <c r="B23" t="n">
         <v>7</v>
@@ -2090,10 +2046,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>7주(03/29)</t>
-        </is>
+      <c r="A24" t="n">
+        <v>20180329</v>
       </c>
       <c r="B24" t="n">
         <v>8</v>
@@ -2163,10 +2117,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>7주(03/29)</t>
-        </is>
+      <c r="A25" t="n">
+        <v>20180329</v>
       </c>
       <c r="B25" t="n">
         <v>9</v>
@@ -2236,10 +2188,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>7주(03/29)</t>
-        </is>
+      <c r="A26" t="n">
+        <v>20180329</v>
       </c>
       <c r="B26" t="n">
         <v>10</v>
@@ -2309,10 +2259,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>7주(03/29)</t>
-        </is>
+      <c r="A27" t="n">
+        <v>20180329</v>
       </c>
       <c r="B27" t="n">
         <v>11</v>
@@ -2375,17 +2323,15 @@
         <v>-1</v>
       </c>
       <c r="V27" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W27" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>7주(03/29)</t>
-        </is>
+      <c r="A28" t="n">
+        <v>20180329</v>
       </c>
       <c r="B28" t="n">
         <v>12</v>
@@ -2455,10 +2401,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>7주(03/29)</t>
-        </is>
+      <c r="A29" t="n">
+        <v>20180329</v>
       </c>
       <c r="B29" t="n">
         <v>13</v>
@@ -2521,17 +2465,15 @@
         <v>1</v>
       </c>
       <c r="V29" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>7주(03/29)</t>
-        </is>
+      <c r="A30" t="n">
+        <v>20180329</v>
       </c>
       <c r="B30" t="n">
         <v>14</v>
@@ -2594,17 +2536,15 @@
         <v>-1</v>
       </c>
       <c r="V30" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="W30" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>7주(03/29)</t>
-        </is>
+      <c r="A31" t="n">
+        <v>20180329</v>
       </c>
       <c r="B31" t="n">
         <v>15</v>
@@ -2674,10 +2614,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>8주(04/05)</t>
-        </is>
+      <c r="A32" t="n">
+        <v>20180405</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -2740,17 +2678,15 @@
         <v>1</v>
       </c>
       <c r="V32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>8주(04/05)</t>
-        </is>
+      <c r="A33" t="n">
+        <v>20180405</v>
       </c>
       <c r="B33" t="n">
         <v>2</v>
@@ -2813,17 +2749,15 @@
         <v>1</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>8주(04/05)</t>
-        </is>
+      <c r="A34" t="n">
+        <v>20180405</v>
       </c>
       <c r="B34" t="n">
         <v>3</v>
@@ -2886,17 +2820,15 @@
         <v>-1</v>
       </c>
       <c r="V34" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="W34" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>8주(04/05)</t>
-        </is>
+      <c r="A35" t="n">
+        <v>20180405</v>
       </c>
       <c r="B35" t="n">
         <v>4</v>
@@ -2959,17 +2891,15 @@
         <v>1</v>
       </c>
       <c r="V35" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W35" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>8주(04/05)</t>
-        </is>
+      <c r="A36" t="n">
+        <v>20180405</v>
       </c>
       <c r="B36" t="n">
         <v>5</v>
@@ -3032,17 +2962,15 @@
         <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>8주(04/05)</t>
-        </is>
+      <c r="A37" t="n">
+        <v>20180405</v>
       </c>
       <c r="B37" t="n">
         <v>6</v>
@@ -3112,10 +3040,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>8주(04/05)</t>
-        </is>
+      <c r="A38" t="n">
+        <v>20180405</v>
       </c>
       <c r="B38" t="n">
         <v>7</v>
@@ -3178,17 +3104,15 @@
         <v>1</v>
       </c>
       <c r="V38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W38" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>8주(04/05)</t>
-        </is>
+      <c r="A39" t="n">
+        <v>20180405</v>
       </c>
       <c r="B39" t="n">
         <v>8</v>
@@ -3251,17 +3175,15 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W39" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>8주(04/05)</t>
-        </is>
+      <c r="A40" t="n">
+        <v>20180405</v>
       </c>
       <c r="B40" t="n">
         <v>9</v>
@@ -3324,17 +3246,15 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W40" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>8주(04/05)</t>
-        </is>
+      <c r="A41" t="n">
+        <v>20180405</v>
       </c>
       <c r="B41" t="n">
         <v>10</v>
@@ -3397,17 +3317,15 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="W41" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>8주(04/05)</t>
-        </is>
+      <c r="A42" t="n">
+        <v>20180405</v>
       </c>
       <c r="B42" t="n">
         <v>11</v>
@@ -3470,17 +3388,15 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W42" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>8주(04/05)</t>
-        </is>
+      <c r="A43" t="n">
+        <v>20180405</v>
       </c>
       <c r="B43" t="n">
         <v>12</v>
@@ -3543,17 +3459,15 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W43" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>8주(04/05)</t>
-        </is>
+      <c r="A44" t="n">
+        <v>20180405</v>
       </c>
       <c r="B44" t="n">
         <v>13</v>
@@ -3616,17 +3530,15 @@
         <v>1</v>
       </c>
       <c r="V44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W44" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>8주(04/05)</t>
-        </is>
+      <c r="A45" t="n">
+        <v>20180405</v>
       </c>
       <c r="B45" t="n">
         <v>14</v>
@@ -3689,17 +3601,15 @@
         <v>1</v>
       </c>
       <c r="V45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>8주(04/05)</t>
-        </is>
+      <c r="A46" t="n">
+        <v>20180405</v>
       </c>
       <c r="B46" t="n">
         <v>15</v>
@@ -3762,17 +3672,15 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>9주(04/11)</t>
-        </is>
+      <c r="A47" t="n">
+        <v>20180411</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -3835,17 +3743,15 @@
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>9주(04/11)</t>
-        </is>
+      <c r="A48" t="n">
+        <v>20180411</v>
       </c>
       <c r="B48" t="n">
         <v>2</v>
@@ -3908,17 +3814,15 @@
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>9주(04/11)</t>
-        </is>
+      <c r="A49" t="n">
+        <v>20180411</v>
       </c>
       <c r="B49" t="n">
         <v>3</v>
@@ -3981,17 +3885,15 @@
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>9주(04/11)</t>
-        </is>
+      <c r="A50" t="n">
+        <v>20180411</v>
       </c>
       <c r="B50" t="n">
         <v>4</v>
@@ -4054,17 +3956,15 @@
         <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="W50" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>9주(04/11)</t>
-        </is>
+      <c r="A51" t="n">
+        <v>20180411</v>
       </c>
       <c r="B51" t="n">
         <v>5</v>
@@ -4127,17 +4027,15 @@
         <v>-1</v>
       </c>
       <c r="V51" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="W51" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>9주(04/11)</t>
-        </is>
+      <c r="A52" t="n">
+        <v>20180411</v>
       </c>
       <c r="B52" t="n">
         <v>6</v>
@@ -4200,17 +4098,15 @@
         <v>1</v>
       </c>
       <c r="V52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W52" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>9주(04/11)</t>
-        </is>
+      <c r="A53" t="n">
+        <v>20180411</v>
       </c>
       <c r="B53" t="n">
         <v>7</v>
@@ -4273,17 +4169,15 @@
         <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W53" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>9주(04/11)</t>
-        </is>
+      <c r="A54" t="n">
+        <v>20180411</v>
       </c>
       <c r="B54" t="n">
         <v>8</v>
@@ -4353,10 +4247,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>9주(04/11)</t>
-        </is>
+      <c r="A55" t="n">
+        <v>20180411</v>
       </c>
       <c r="B55" t="n">
         <v>9</v>
@@ -4426,10 +4318,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>9주(04/11)</t>
-        </is>
+      <c r="A56" t="n">
+        <v>20180411</v>
       </c>
       <c r="B56" t="n">
         <v>10</v>
@@ -4492,17 +4382,15 @@
         <v>1</v>
       </c>
       <c r="V56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>9주(04/11)</t>
-        </is>
+      <c r="A57" t="n">
+        <v>20180411</v>
       </c>
       <c r="B57" t="n">
         <v>11</v>
@@ -4565,17 +4453,15 @@
         <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>9주(04/11)</t>
-        </is>
+      <c r="A58" t="n">
+        <v>20180411</v>
       </c>
       <c r="B58" t="n">
         <v>12</v>
@@ -4645,10 +4531,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>9주(04/11)</t>
-        </is>
+      <c r="A59" t="n">
+        <v>20180411</v>
       </c>
       <c r="B59" t="n">
         <v>13</v>
@@ -4711,17 +4595,15 @@
         <v>-1</v>
       </c>
       <c r="V59" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W59" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>9주(04/11)</t>
-        </is>
+      <c r="A60" t="n">
+        <v>20180411</v>
       </c>
       <c r="B60" t="n">
         <v>14</v>
@@ -4784,17 +4666,15 @@
         <v>0</v>
       </c>
       <c r="V60" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W60" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>9주(04/11)</t>
-        </is>
+      <c r="A61" t="n">
+        <v>20180411</v>
       </c>
       <c r="B61" t="n">
         <v>15</v>
@@ -4857,17 +4737,15 @@
         <v>1</v>
       </c>
       <c r="V61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W61" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>10주(04/18)</t>
-        </is>
+      <c r="A62" t="n">
+        <v>20180418</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -4930,17 +4808,15 @@
         <v>1</v>
       </c>
       <c r="V62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W62" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>10주(04/18)</t>
-        </is>
+      <c r="A63" t="n">
+        <v>20180418</v>
       </c>
       <c r="B63" t="n">
         <v>2</v>
@@ -5010,10 +4886,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>10주(04/18)</t>
-        </is>
+      <c r="A64" t="n">
+        <v>20180418</v>
       </c>
       <c r="B64" t="n">
         <v>3</v>
@@ -5076,17 +4950,15 @@
         <v>0</v>
       </c>
       <c r="V64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>10주(04/18)</t>
-        </is>
+      <c r="A65" t="n">
+        <v>20180418</v>
       </c>
       <c r="B65" t="n">
         <v>4</v>
@@ -5156,10 +5028,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>10주(04/18)</t>
-        </is>
+      <c r="A66" t="n">
+        <v>20180418</v>
       </c>
       <c r="B66" t="n">
         <v>5</v>
@@ -5222,17 +5092,15 @@
         <v>-1</v>
       </c>
       <c r="V66" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="W66" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>10주(04/18)</t>
-        </is>
+      <c r="A67" t="n">
+        <v>20180418</v>
       </c>
       <c r="B67" t="n">
         <v>6</v>
@@ -5295,17 +5163,15 @@
         <v>0</v>
       </c>
       <c r="V67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W67" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>10주(04/18)</t>
-        </is>
+      <c r="A68" t="n">
+        <v>20180418</v>
       </c>
       <c r="B68" t="n">
         <v>7</v>
@@ -5368,17 +5234,15 @@
         <v>1</v>
       </c>
       <c r="V68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W68" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>10주(04/18)</t>
-        </is>
+      <c r="A69" t="n">
+        <v>20180418</v>
       </c>
       <c r="B69" t="n">
         <v>8</v>
@@ -5441,17 +5305,15 @@
         <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>10주(04/18)</t>
-        </is>
+      <c r="A70" t="n">
+        <v>20180418</v>
       </c>
       <c r="B70" t="n">
         <v>9</v>
@@ -5514,17 +5376,15 @@
         <v>1</v>
       </c>
       <c r="V70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>10주(04/18)</t>
-        </is>
+      <c r="A71" t="n">
+        <v>20180418</v>
       </c>
       <c r="B71" t="n">
         <v>10</v>
@@ -5587,17 +5447,15 @@
         <v>0</v>
       </c>
       <c r="V71" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W71" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>10주(04/18)</t>
-        </is>
+      <c r="A72" t="n">
+        <v>20180418</v>
       </c>
       <c r="B72" t="n">
         <v>11</v>
@@ -5660,17 +5518,15 @@
         <v>0</v>
       </c>
       <c r="V72" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W72" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>10주(04/18)</t>
-        </is>
+      <c r="A73" t="n">
+        <v>20180418</v>
       </c>
       <c r="B73" t="n">
         <v>12</v>
@@ -5733,17 +5589,15 @@
         <v>0</v>
       </c>
       <c r="V73" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="W73" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>10주(04/18)</t>
-        </is>
+      <c r="A74" t="n">
+        <v>20180418</v>
       </c>
       <c r="B74" t="n">
         <v>13</v>
@@ -5806,17 +5660,15 @@
         <v>0</v>
       </c>
       <c r="V74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W74" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>10주(04/18)</t>
-        </is>
+      <c r="A75" t="n">
+        <v>20180418</v>
       </c>
       <c r="B75" t="n">
         <v>14</v>
@@ -5886,10 +5738,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>10주(04/18)</t>
-        </is>
+      <c r="A76" t="n">
+        <v>20180418</v>
       </c>
       <c r="B76" t="n">
         <v>15</v>
@@ -5959,10 +5809,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>11주(04/25)</t>
-        </is>
+      <c r="A77" t="n">
+        <v>20180425</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -6025,17 +5873,15 @@
         <v>1</v>
       </c>
       <c r="V77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W77" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>11주(04/25)</t>
-        </is>
+      <c r="A78" t="n">
+        <v>20180425</v>
       </c>
       <c r="B78" t="n">
         <v>2</v>
@@ -6098,17 +5944,15 @@
         <v>1</v>
       </c>
       <c r="V78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W78" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>11주(04/25)</t>
-        </is>
+      <c r="A79" t="n">
+        <v>20180425</v>
       </c>
       <c r="B79" t="n">
         <v>3</v>
@@ -6171,17 +6015,15 @@
         <v>0</v>
       </c>
       <c r="V79" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W79" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>11주(04/25)</t>
-        </is>
+      <c r="A80" t="n">
+        <v>20180425</v>
       </c>
       <c r="B80" t="n">
         <v>4</v>
@@ -6244,17 +6086,15 @@
         <v>0</v>
       </c>
       <c r="V80" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W80" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>11주(04/25)</t>
-        </is>
+      <c r="A81" t="n">
+        <v>20180425</v>
       </c>
       <c r="B81" t="n">
         <v>5</v>
@@ -6317,17 +6157,15 @@
         <v>0</v>
       </c>
       <c r="V81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>11주(04/25)</t>
-        </is>
+      <c r="A82" t="n">
+        <v>20180425</v>
       </c>
       <c r="B82" t="n">
         <v>6</v>
@@ -6390,17 +6228,15 @@
         <v>0</v>
       </c>
       <c r="V82" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="W82" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>11주(04/25)</t>
-        </is>
+      <c r="A83" t="n">
+        <v>20180425</v>
       </c>
       <c r="B83" t="n">
         <v>7</v>
@@ -6463,17 +6299,15 @@
         <v>1</v>
       </c>
       <c r="V83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W83" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>11주(04/25)</t>
-        </is>
+      <c r="A84" t="n">
+        <v>20180425</v>
       </c>
       <c r="B84" t="n">
         <v>8</v>
@@ -6536,17 +6370,15 @@
         <v>0</v>
       </c>
       <c r="V84" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W84" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>11주(04/25)</t>
-        </is>
+      <c r="A85" t="n">
+        <v>20180425</v>
       </c>
       <c r="B85" t="n">
         <v>9</v>
@@ -6609,17 +6441,15 @@
         <v>0</v>
       </c>
       <c r="V85" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W85" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>11주(04/25)</t>
-        </is>
+      <c r="A86" t="n">
+        <v>20180425</v>
       </c>
       <c r="B86" t="n">
         <v>10</v>
@@ -6689,10 +6519,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>11주(04/25)</t>
-        </is>
+      <c r="A87" t="n">
+        <v>20180425</v>
       </c>
       <c r="B87" t="n">
         <v>11</v>
@@ -6762,10 +6590,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>11주(04/25)</t>
-        </is>
+      <c r="A88" t="n">
+        <v>20180425</v>
       </c>
       <c r="B88" t="n">
         <v>12</v>
@@ -6828,17 +6654,15 @@
         <v>0</v>
       </c>
       <c r="V88" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="W88" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>11주(04/25)</t>
-        </is>
+      <c r="A89" t="n">
+        <v>20180425</v>
       </c>
       <c r="B89" t="n">
         <v>13</v>
@@ -6901,17 +6725,15 @@
         <v>0</v>
       </c>
       <c r="V89" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="W89" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>11주(04/25)</t>
-        </is>
+      <c r="A90" t="n">
+        <v>20180425</v>
       </c>
       <c r="B90" t="n">
         <v>14</v>
@@ -6974,17 +6796,15 @@
         <v>0</v>
       </c>
       <c r="V90" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W90" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>11주(04/25)</t>
-        </is>
+      <c r="A91" t="n">
+        <v>20180425</v>
       </c>
       <c r="B91" t="n">
         <v>15</v>
@@ -7047,17 +6867,15 @@
         <v>1</v>
       </c>
       <c r="V91" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W91" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>12주(05/02)</t>
-        </is>
+      <c r="A92" t="n">
+        <v>20180502</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
@@ -7120,17 +6938,15 @@
         <v>0</v>
       </c>
       <c r="V92" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W92" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>12주(05/02)</t>
-        </is>
+      <c r="A93" t="n">
+        <v>20180502</v>
       </c>
       <c r="B93" t="n">
         <v>2</v>
@@ -7193,17 +7009,15 @@
         <v>0</v>
       </c>
       <c r="V93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>12주(05/02)</t>
-        </is>
+      <c r="A94" t="n">
+        <v>20180502</v>
       </c>
       <c r="B94" t="n">
         <v>3</v>
@@ -7266,17 +7080,15 @@
         <v>-1</v>
       </c>
       <c r="V94" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="W94" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>12주(05/02)</t>
-        </is>
+      <c r="A95" t="n">
+        <v>20180502</v>
       </c>
       <c r="B95" t="n">
         <v>4</v>
@@ -7339,17 +7151,15 @@
         <v>0</v>
       </c>
       <c r="V95" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W95" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>12주(05/02)</t>
-        </is>
+      <c r="A96" t="n">
+        <v>20180502</v>
       </c>
       <c r="B96" t="n">
         <v>5</v>
@@ -7412,17 +7222,15 @@
         <v>1</v>
       </c>
       <c r="V96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W96" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>12주(05/02)</t>
-        </is>
+      <c r="A97" t="n">
+        <v>20180502</v>
       </c>
       <c r="B97" t="n">
         <v>6</v>
@@ -7485,17 +7293,15 @@
         <v>0</v>
       </c>
       <c r="V97" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W97" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>12주(05/02)</t>
-        </is>
+      <c r="A98" t="n">
+        <v>20180502</v>
       </c>
       <c r="B98" t="n">
         <v>7</v>
@@ -7558,17 +7364,15 @@
         <v>1</v>
       </c>
       <c r="V98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W98" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>12주(05/02)</t>
-        </is>
+      <c r="A99" t="n">
+        <v>20180502</v>
       </c>
       <c r="B99" t="n">
         <v>8</v>
@@ -7631,17 +7435,15 @@
         <v>-1</v>
       </c>
       <c r="V99" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="W99" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>12주(05/02)</t>
-        </is>
+      <c r="A100" t="n">
+        <v>20180502</v>
       </c>
       <c r="B100" t="n">
         <v>9</v>
@@ -7704,17 +7506,15 @@
         <v>1</v>
       </c>
       <c r="V100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W100" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>12주(05/02)</t>
-        </is>
+      <c r="A101" t="n">
+        <v>20180502</v>
       </c>
       <c r="B101" t="n">
         <v>10</v>
@@ -7777,17 +7577,15 @@
         <v>-1</v>
       </c>
       <c r="V101" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="W101" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>12주(05/02)</t>
-        </is>
+      <c r="A102" t="n">
+        <v>20180502</v>
       </c>
       <c r="B102" t="n">
         <v>11</v>
@@ -7850,17 +7648,15 @@
         <v>-1</v>
       </c>
       <c r="V102" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="W102" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>12주(05/02)</t>
-        </is>
+      <c r="A103" t="n">
+        <v>20180502</v>
       </c>
       <c r="B103" t="n">
         <v>12</v>
@@ -7923,17 +7719,15 @@
         <v>1</v>
       </c>
       <c r="V103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>12주(05/02)</t>
-        </is>
+      <c r="A104" t="n">
+        <v>20180502</v>
       </c>
       <c r="B104" t="n">
         <v>13</v>
@@ -7996,17 +7790,15 @@
         <v>1</v>
       </c>
       <c r="V104" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W104" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>12주(05/02)</t>
-        </is>
+      <c r="A105" t="n">
+        <v>20180502</v>
       </c>
       <c r="B105" t="n">
         <v>14</v>
@@ -8069,17 +7861,15 @@
         <v>0</v>
       </c>
       <c r="V105" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W105" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>12주(05/02)</t>
-        </is>
+      <c r="A106" t="n">
+        <v>20180502</v>
       </c>
       <c r="B106" t="n">
         <v>15</v>
@@ -8142,17 +7932,15 @@
         <v>-1</v>
       </c>
       <c r="V106" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="W106" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>13주(05/09)</t>
-        </is>
+      <c r="A107" t="n">
+        <v>20180509</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -8215,17 +8003,15 @@
         <v>-1</v>
       </c>
       <c r="V107" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="W107" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>13주(05/09)</t>
-        </is>
+      <c r="A108" t="n">
+        <v>20180509</v>
       </c>
       <c r="B108" t="n">
         <v>2</v>
@@ -8288,17 +8074,15 @@
         <v>0</v>
       </c>
       <c r="V108" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W108" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>13주(05/09)</t>
-        </is>
+      <c r="A109" t="n">
+        <v>20180509</v>
       </c>
       <c r="B109" t="n">
         <v>3</v>
@@ -8361,17 +8145,15 @@
         <v>-1</v>
       </c>
       <c r="V109" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="W109" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>13주(05/09)</t>
-        </is>
+      <c r="A110" t="n">
+        <v>20180509</v>
       </c>
       <c r="B110" t="n">
         <v>4</v>
@@ -8434,17 +8216,15 @@
         <v>-1</v>
       </c>
       <c r="V110" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="W110" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>13주(05/09)</t>
-        </is>
+      <c r="A111" t="n">
+        <v>20180509</v>
       </c>
       <c r="B111" t="n">
         <v>5</v>
@@ -8507,17 +8287,15 @@
         <v>0</v>
       </c>
       <c r="V111" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W111" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>13주(05/09)</t>
-        </is>
+      <c r="A112" t="n">
+        <v>20180509</v>
       </c>
       <c r="B112" t="n">
         <v>6</v>
@@ -8580,17 +8358,15 @@
         <v>-1</v>
       </c>
       <c r="V112" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="W112" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>13주(05/09)</t>
-        </is>
+      <c r="A113" t="n">
+        <v>20180509</v>
       </c>
       <c r="B113" t="n">
         <v>7</v>
@@ -8653,17 +8429,15 @@
         <v>0</v>
       </c>
       <c r="V113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>13주(05/09)</t>
-        </is>
+      <c r="A114" t="n">
+        <v>20180509</v>
       </c>
       <c r="B114" t="n">
         <v>8</v>
@@ -8726,17 +8500,15 @@
         <v>-1</v>
       </c>
       <c r="V114" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="W114" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>13주(05/09)</t>
-        </is>
+      <c r="A115" t="n">
+        <v>20180509</v>
       </c>
       <c r="B115" t="n">
         <v>9</v>
@@ -8799,17 +8571,15 @@
         <v>0</v>
       </c>
       <c r="V115" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W115" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>13주(05/09)</t>
-        </is>
+      <c r="A116" t="n">
+        <v>20180509</v>
       </c>
       <c r="B116" t="n">
         <v>10</v>
@@ -8872,17 +8642,15 @@
         <v>1</v>
       </c>
       <c r="V116" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W116" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>13주(05/09)</t>
-        </is>
+      <c r="A117" t="n">
+        <v>20180509</v>
       </c>
       <c r="B117" t="n">
         <v>11</v>
@@ -8945,17 +8713,15 @@
         <v>-1</v>
       </c>
       <c r="V117" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="W117" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>13주(05/09)</t>
-        </is>
+      <c r="A118" t="n">
+        <v>20180509</v>
       </c>
       <c r="B118" t="n">
         <v>12</v>
@@ -9018,17 +8784,15 @@
         <v>0</v>
       </c>
       <c r="V118" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W118" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>13주(05/09)</t>
-        </is>
+      <c r="A119" t="n">
+        <v>20180509</v>
       </c>
       <c r="B119" t="n">
         <v>13</v>
@@ -9091,17 +8855,15 @@
         <v>0</v>
       </c>
       <c r="V119" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="W119" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>13주(05/09)</t>
-        </is>
+      <c r="A120" t="n">
+        <v>20180509</v>
       </c>
       <c r="B120" t="n">
         <v>14</v>
@@ -9164,17 +8926,15 @@
         <v>0</v>
       </c>
       <c r="V120" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W120" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>13주(05/09)</t>
-        </is>
+      <c r="A121" t="n">
+        <v>20180509</v>
       </c>
       <c r="B121" t="n">
         <v>15</v>
@@ -9237,17 +8997,15 @@
         <v>-1</v>
       </c>
       <c r="V121" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="W121" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>14주(05/16)</t>
-        </is>
+      <c r="A122" t="n">
+        <v>20180516</v>
       </c>
       <c r="B122" t="n">
         <v>1</v>
@@ -9310,17 +9068,15 @@
         <v>-1</v>
       </c>
       <c r="V122" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="W122" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>14주(05/16)</t>
-        </is>
+      <c r="A123" t="n">
+        <v>20180516</v>
       </c>
       <c r="B123" t="n">
         <v>2</v>
@@ -9383,17 +9139,15 @@
         <v>1</v>
       </c>
       <c r="V123" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="W123" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>14주(05/16)</t>
-        </is>
+      <c r="A124" t="n">
+        <v>20180516</v>
       </c>
       <c r="B124" t="n">
         <v>3</v>
@@ -9456,17 +9210,15 @@
         <v>-1</v>
       </c>
       <c r="V124" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="W124" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>14주(05/16)</t>
-        </is>
+      <c r="A125" t="n">
+        <v>20180516</v>
       </c>
       <c r="B125" t="n">
         <v>4</v>
@@ -9529,17 +9281,15 @@
         <v>0</v>
       </c>
       <c r="V125" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="W125" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>14주(05/16)</t>
-        </is>
+      <c r="A126" t="n">
+        <v>20180516</v>
       </c>
       <c r="B126" t="n">
         <v>5</v>
@@ -9602,17 +9352,15 @@
         <v>0</v>
       </c>
       <c r="V126" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="W126" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>14주(05/16)</t>
-        </is>
+      <c r="A127" t="n">
+        <v>20180516</v>
       </c>
       <c r="B127" t="n">
         <v>6</v>
@@ -9675,17 +9423,15 @@
         <v>0</v>
       </c>
       <c r="V127" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="W127" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>14주(05/16)</t>
-        </is>
+      <c r="A128" t="n">
+        <v>20180516</v>
       </c>
       <c r="B128" t="n">
         <v>7</v>
@@ -9748,17 +9494,15 @@
         <v>1</v>
       </c>
       <c r="V128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>14주(05/16)</t>
-        </is>
+      <c r="A129" t="n">
+        <v>20180516</v>
       </c>
       <c r="B129" t="n">
         <v>8</v>
@@ -9821,17 +9565,15 @@
         <v>0</v>
       </c>
       <c r="V129" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W129" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>14주(05/16)</t>
-        </is>
+      <c r="A130" t="n">
+        <v>20180516</v>
       </c>
       <c r="B130" t="n">
         <v>9</v>
@@ -9894,17 +9636,15 @@
         <v>0</v>
       </c>
       <c r="V130" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="W130" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>14주(05/16)</t>
-        </is>
+      <c r="A131" t="n">
+        <v>20180516</v>
       </c>
       <c r="B131" t="n">
         <v>10</v>
@@ -9967,17 +9707,15 @@
         <v>1</v>
       </c>
       <c r="V131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>14주(05/16)</t>
-        </is>
+      <c r="A132" t="n">
+        <v>20180516</v>
       </c>
       <c r="B132" t="n">
         <v>11</v>
@@ -10040,17 +9778,15 @@
         <v>-1</v>
       </c>
       <c r="V132" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="W132" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>14주(05/16)</t>
-        </is>
+      <c r="A133" t="n">
+        <v>20180516</v>
       </c>
       <c r="B133" t="n">
         <v>12</v>
@@ -10113,17 +9849,15 @@
         <v>0</v>
       </c>
       <c r="V133" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W133" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>14주(05/16)</t>
-        </is>
+      <c r="A134" t="n">
+        <v>20180516</v>
       </c>
       <c r="B134" t="n">
         <v>13</v>
@@ -10186,17 +9920,15 @@
         <v>0</v>
       </c>
       <c r="V134" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="W134" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>14주(05/16)</t>
-        </is>
+      <c r="A135" t="n">
+        <v>20180516</v>
       </c>
       <c r="B135" t="n">
         <v>14</v>
@@ -10266,10 +9998,8 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>14주(05/16)</t>
-        </is>
+      <c r="A136" t="n">
+        <v>20180516</v>
       </c>
       <c r="B136" t="n">
         <v>15</v>
@@ -10332,17 +10062,15 @@
         <v>-1</v>
       </c>
       <c r="V136" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="W136" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>15주(05/24)</t>
-        </is>
+      <c r="A137" t="n">
+        <v>20180524</v>
       </c>
       <c r="B137" t="n">
         <v>1</v>
@@ -10412,10 +10140,8 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>15주(05/24)</t>
-        </is>
+      <c r="A138" t="n">
+        <v>20180524</v>
       </c>
       <c r="B138" t="n">
         <v>2</v>
@@ -10485,10 +10211,8 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>15주(05/24)</t>
-        </is>
+      <c r="A139" t="n">
+        <v>20180524</v>
       </c>
       <c r="B139" t="n">
         <v>3</v>
@@ -10558,10 +10282,8 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>15주(05/24)</t>
-        </is>
+      <c r="A140" t="n">
+        <v>20180524</v>
       </c>
       <c r="B140" t="n">
         <v>4</v>
@@ -10631,10 +10353,8 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>15주(05/24)</t>
-        </is>
+      <c r="A141" t="n">
+        <v>20180524</v>
       </c>
       <c r="B141" t="n">
         <v>5</v>
@@ -10704,10 +10424,8 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>15주(05/24)</t>
-        </is>
+      <c r="A142" t="n">
+        <v>20180524</v>
       </c>
       <c r="B142" t="n">
         <v>6</v>
@@ -10777,10 +10495,8 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>15주(05/24)</t>
-        </is>
+      <c r="A143" t="n">
+        <v>20180524</v>
       </c>
       <c r="B143" t="n">
         <v>7</v>
@@ -10850,10 +10566,8 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>15주(05/24)</t>
-        </is>
+      <c r="A144" t="n">
+        <v>20180524</v>
       </c>
       <c r="B144" t="n">
         <v>8</v>
@@ -10923,10 +10637,8 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>15주(05/24)</t>
-        </is>
+      <c r="A145" t="n">
+        <v>20180524</v>
       </c>
       <c r="B145" t="n">
         <v>9</v>
@@ -10996,10 +10708,8 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>15주(05/24)</t>
-        </is>
+      <c r="A146" t="n">
+        <v>20180524</v>
       </c>
       <c r="B146" t="n">
         <v>10</v>
@@ -11069,10 +10779,8 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>15주(05/24)</t>
-        </is>
+      <c r="A147" t="n">
+        <v>20180524</v>
       </c>
       <c r="B147" t="n">
         <v>11</v>
@@ -11142,10 +10850,8 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>15주(05/24)</t>
-        </is>
+      <c r="A148" t="n">
+        <v>20180524</v>
       </c>
       <c r="B148" t="n">
         <v>12</v>
@@ -11215,10 +10921,8 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>15주(05/24)</t>
-        </is>
+      <c r="A149" t="n">
+        <v>20180524</v>
       </c>
       <c r="B149" t="n">
         <v>13</v>
@@ -11288,10 +10992,8 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>15주(05/24)</t>
-        </is>
+      <c r="A150" t="n">
+        <v>20180524</v>
       </c>
       <c r="B150" t="n">
         <v>14</v>
@@ -11361,10 +11063,8 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>15주(05/24)</t>
-        </is>
+      <c r="A151" t="n">
+        <v>20180524</v>
       </c>
       <c r="B151" t="n">
         <v>15</v>
@@ -11434,10 +11134,8 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>16주(05/30)</t>
-        </is>
+      <c r="A152" t="n">
+        <v>20180530</v>
       </c>
       <c r="B152" t="n">
         <v>1</v>
@@ -11507,10 +11205,8 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>16주(05/30)</t>
-        </is>
+      <c r="A153" t="n">
+        <v>20180530</v>
       </c>
       <c r="B153" t="n">
         <v>2</v>
@@ -11580,10 +11276,8 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>16주(05/30)</t>
-        </is>
+      <c r="A154" t="n">
+        <v>20180530</v>
       </c>
       <c r="B154" t="n">
         <v>3</v>
@@ -11653,10 +11347,8 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>16주(05/30)</t>
-        </is>
+      <c r="A155" t="n">
+        <v>20180530</v>
       </c>
       <c r="B155" t="n">
         <v>4</v>
@@ -11726,10 +11418,8 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>16주(05/30)</t>
-        </is>
+      <c r="A156" t="n">
+        <v>20180530</v>
       </c>
       <c r="B156" t="n">
         <v>5</v>
@@ -11799,10 +11489,8 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>16주(05/30)</t>
-        </is>
+      <c r="A157" t="n">
+        <v>20180530</v>
       </c>
       <c r="B157" t="n">
         <v>6</v>
@@ -11872,10 +11560,8 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>16주(05/30)</t>
-        </is>
+      <c r="A158" t="n">
+        <v>20180530</v>
       </c>
       <c r="B158" t="n">
         <v>7</v>
@@ -11945,10 +11631,8 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>16주(05/30)</t>
-        </is>
+      <c r="A159" t="n">
+        <v>20180530</v>
       </c>
       <c r="B159" t="n">
         <v>8</v>
@@ -12018,10 +11702,8 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>16주(05/30)</t>
-        </is>
+      <c r="A160" t="n">
+        <v>20180530</v>
       </c>
       <c r="B160" t="n">
         <v>9</v>
@@ -12091,10 +11773,8 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>16주(05/30)</t>
-        </is>
+      <c r="A161" t="n">
+        <v>20180530</v>
       </c>
       <c r="B161" t="n">
         <v>10</v>
@@ -12164,10 +11844,8 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>16주(05/30)</t>
-        </is>
+      <c r="A162" t="n">
+        <v>20180530</v>
       </c>
       <c r="B162" t="n">
         <v>11</v>
@@ -12237,10 +11915,8 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>16주(05/30)</t>
-        </is>
+      <c r="A163" t="n">
+        <v>20180530</v>
       </c>
       <c r="B163" t="n">
         <v>12</v>
@@ -12310,10 +11986,8 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>16주(05/30)</t>
-        </is>
+      <c r="A164" t="n">
+        <v>20180530</v>
       </c>
       <c r="B164" t="n">
         <v>13</v>
@@ -12383,10 +12057,8 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>16주(05/30)</t>
-        </is>
+      <c r="A165" t="n">
+        <v>20180530</v>
       </c>
       <c r="B165" t="n">
         <v>14</v>
@@ -12456,10 +12128,8 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>16주(05/30)</t>
-        </is>
+      <c r="A166" t="n">
+        <v>20180530</v>
       </c>
       <c r="B166" t="n">
         <v>15</v>
@@ -12529,10 +12199,8 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>17주(06/06)</t>
-        </is>
+      <c r="A167" t="n">
+        <v>20180606</v>
       </c>
       <c r="B167" t="n">
         <v>1</v>
@@ -12602,10 +12270,8 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>17주(06/06)</t>
-        </is>
+      <c r="A168" t="n">
+        <v>20180606</v>
       </c>
       <c r="B168" t="n">
         <v>2</v>
@@ -12675,10 +12341,8 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>17주(06/06)</t>
-        </is>
+      <c r="A169" t="n">
+        <v>20180606</v>
       </c>
       <c r="B169" t="n">
         <v>3</v>
@@ -12748,10 +12412,8 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>17주(06/06)</t>
-        </is>
+      <c r="A170" t="n">
+        <v>20180606</v>
       </c>
       <c r="B170" t="n">
         <v>4</v>
@@ -12821,10 +12483,8 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>17주(06/06)</t>
-        </is>
+      <c r="A171" t="n">
+        <v>20180606</v>
       </c>
       <c r="B171" t="n">
         <v>5</v>
@@ -12894,10 +12554,8 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>17주(06/06)</t>
-        </is>
+      <c r="A172" t="n">
+        <v>20180606</v>
       </c>
       <c r="B172" t="n">
         <v>6</v>
@@ -12967,10 +12625,8 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>17주(06/06)</t>
-        </is>
+      <c r="A173" t="n">
+        <v>20180606</v>
       </c>
       <c r="B173" t="n">
         <v>7</v>
@@ -13040,10 +12696,8 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>17주(06/06)</t>
-        </is>
+      <c r="A174" t="n">
+        <v>20180606</v>
       </c>
       <c r="B174" t="n">
         <v>8</v>
@@ -13113,10 +12767,8 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>17주(06/06)</t>
-        </is>
+      <c r="A175" t="n">
+        <v>20180606</v>
       </c>
       <c r="B175" t="n">
         <v>9</v>
@@ -13186,10 +12838,8 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>17주(06/06)</t>
-        </is>
+      <c r="A176" t="n">
+        <v>20180606</v>
       </c>
       <c r="B176" t="n">
         <v>10</v>
@@ -13259,10 +12909,8 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>17주(06/06)</t>
-        </is>
+      <c r="A177" t="n">
+        <v>20180606</v>
       </c>
       <c r="B177" t="n">
         <v>11</v>
@@ -13332,10 +12980,8 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>17주(06/06)</t>
-        </is>
+      <c r="A178" t="n">
+        <v>20180606</v>
       </c>
       <c r="B178" t="n">
         <v>12</v>
@@ -13405,10 +13051,8 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>17주(06/06)</t>
-        </is>
+      <c r="A179" t="n">
+        <v>20180606</v>
       </c>
       <c r="B179" t="n">
         <v>13</v>
@@ -13478,10 +13122,8 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>17주(06/06)</t>
-        </is>
+      <c r="A180" t="n">
+        <v>20180606</v>
       </c>
       <c r="B180" t="n">
         <v>14</v>
@@ -13551,10 +13193,8 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>17주(06/06)</t>
-        </is>
+      <c r="A181" t="n">
+        <v>20180606</v>
       </c>
       <c r="B181" t="n">
         <v>15</v>
@@ -13624,10 +13264,8 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>18주(06/13)</t>
-        </is>
+      <c r="A182" t="n">
+        <v>20180613</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
@@ -13697,10 +13335,8 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>18주(06/13)</t>
-        </is>
+      <c r="A183" t="n">
+        <v>20180613</v>
       </c>
       <c r="B183" t="n">
         <v>2</v>
@@ -13770,10 +13406,8 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>18주(06/13)</t>
-        </is>
+      <c r="A184" t="n">
+        <v>20180613</v>
       </c>
       <c r="B184" t="n">
         <v>3</v>
@@ -13843,10 +13477,8 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>18주(06/13)</t>
-        </is>
+      <c r="A185" t="n">
+        <v>20180613</v>
       </c>
       <c r="B185" t="n">
         <v>4</v>
@@ -13916,10 +13548,8 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>18주(06/13)</t>
-        </is>
+      <c r="A186" t="n">
+        <v>20180613</v>
       </c>
       <c r="B186" t="n">
         <v>5</v>
@@ -13989,10 +13619,8 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>18주(06/13)</t>
-        </is>
+      <c r="A187" t="n">
+        <v>20180613</v>
       </c>
       <c r="B187" t="n">
         <v>6</v>
@@ -14062,10 +13690,8 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>18주(06/13)</t>
-        </is>
+      <c r="A188" t="n">
+        <v>20180613</v>
       </c>
       <c r="B188" t="n">
         <v>7</v>
@@ -14135,10 +13761,8 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>18주(06/13)</t>
-        </is>
+      <c r="A189" t="n">
+        <v>20180613</v>
       </c>
       <c r="B189" t="n">
         <v>8</v>
@@ -14208,10 +13832,8 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>18주(06/13)</t>
-        </is>
+      <c r="A190" t="n">
+        <v>20180613</v>
       </c>
       <c r="B190" t="n">
         <v>9</v>
@@ -14281,10 +13903,8 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>18주(06/13)</t>
-        </is>
+      <c r="A191" t="n">
+        <v>20180613</v>
       </c>
       <c r="B191" t="n">
         <v>10</v>
@@ -14354,10 +13974,8 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>18주(06/13)</t>
-        </is>
+      <c r="A192" t="n">
+        <v>20180613</v>
       </c>
       <c r="B192" t="n">
         <v>11</v>
@@ -14427,10 +14045,8 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>18주(06/13)</t>
-        </is>
+      <c r="A193" t="n">
+        <v>20180613</v>
       </c>
       <c r="B193" t="n">
         <v>12</v>
@@ -14500,10 +14116,8 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>18주(06/13)</t>
-        </is>
+      <c r="A194" t="n">
+        <v>20180613</v>
       </c>
       <c r="B194" t="n">
         <v>13</v>
@@ -14573,10 +14187,8 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>18주(06/13)</t>
-        </is>
+      <c r="A195" t="n">
+        <v>20180613</v>
       </c>
       <c r="B195" t="n">
         <v>14</v>
@@ -14646,10 +14258,8 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>18주(06/13)</t>
-        </is>
+      <c r="A196" t="n">
+        <v>20180613</v>
       </c>
       <c r="B196" t="n">
         <v>15</v>
@@ -14719,10 +14329,8 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>19주(06/20)</t>
-        </is>
+      <c r="A197" t="n">
+        <v>20180620</v>
       </c>
       <c r="B197" t="n">
         <v>1</v>
@@ -14792,10 +14400,8 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>19주(06/20)</t>
-        </is>
+      <c r="A198" t="n">
+        <v>20180620</v>
       </c>
       <c r="B198" t="n">
         <v>2</v>
@@ -14865,10 +14471,8 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>19주(06/20)</t>
-        </is>
+      <c r="A199" t="n">
+        <v>20180620</v>
       </c>
       <c r="B199" t="n">
         <v>3</v>
@@ -14938,10 +14542,8 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>19주(06/20)</t>
-        </is>
+      <c r="A200" t="n">
+        <v>20180620</v>
       </c>
       <c r="B200" t="n">
         <v>4</v>
@@ -15011,10 +14613,8 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>19주(06/20)</t>
-        </is>
+      <c r="A201" t="n">
+        <v>20180620</v>
       </c>
       <c r="B201" t="n">
         <v>5</v>
@@ -15084,10 +14684,8 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>19주(06/20)</t>
-        </is>
+      <c r="A202" t="n">
+        <v>20180620</v>
       </c>
       <c r="B202" t="n">
         <v>6</v>
@@ -15157,10 +14755,8 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>19주(06/20)</t>
-        </is>
+      <c r="A203" t="n">
+        <v>20180620</v>
       </c>
       <c r="B203" t="n">
         <v>7</v>
@@ -15230,10 +14826,8 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>19주(06/20)</t>
-        </is>
+      <c r="A204" t="n">
+        <v>20180620</v>
       </c>
       <c r="B204" t="n">
         <v>8</v>
@@ -15303,10 +14897,8 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>19주(06/20)</t>
-        </is>
+      <c r="A205" t="n">
+        <v>20180620</v>
       </c>
       <c r="B205" t="n">
         <v>9</v>
@@ -15376,10 +14968,8 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>19주(06/20)</t>
-        </is>
+      <c r="A206" t="n">
+        <v>20180620</v>
       </c>
       <c r="B206" t="n">
         <v>10</v>
@@ -15449,10 +15039,8 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>19주(06/20)</t>
-        </is>
+      <c r="A207" t="n">
+        <v>20180620</v>
       </c>
       <c r="B207" t="n">
         <v>11</v>
@@ -15522,10 +15110,8 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>19주(06/20)</t>
-        </is>
+      <c r="A208" t="n">
+        <v>20180620</v>
       </c>
       <c r="B208" t="n">
         <v>12</v>
@@ -15595,10 +15181,8 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>19주(06/20)</t>
-        </is>
+      <c r="A209" t="n">
+        <v>20180620</v>
       </c>
       <c r="B209" t="n">
         <v>13</v>
@@ -15668,10 +15252,8 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>19주(06/20)</t>
-        </is>
+      <c r="A210" t="n">
+        <v>20180620</v>
       </c>
       <c r="B210" t="n">
         <v>14</v>
@@ -15741,10 +15323,8 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>19주(06/20)</t>
-        </is>
+      <c r="A211" t="n">
+        <v>20180620</v>
       </c>
       <c r="B211" t="n">
         <v>15</v>
@@ -15814,10 +15394,8 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>20주(06/27)</t>
-        </is>
+      <c r="A212" t="n">
+        <v>20180627</v>
       </c>
       <c r="B212" t="n">
         <v>1</v>
@@ -15887,10 +15465,8 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>20주(06/27)</t>
-        </is>
+      <c r="A213" t="n">
+        <v>20180627</v>
       </c>
       <c r="B213" t="n">
         <v>2</v>
@@ -15960,10 +15536,8 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>20주(06/27)</t>
-        </is>
+      <c r="A214" t="n">
+        <v>20180627</v>
       </c>
       <c r="B214" t="n">
         <v>3</v>
@@ -16033,10 +15607,8 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>20주(06/27)</t>
-        </is>
+      <c r="A215" t="n">
+        <v>20180627</v>
       </c>
       <c r="B215" t="n">
         <v>4</v>
@@ -16106,10 +15678,8 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>20주(06/27)</t>
-        </is>
+      <c r="A216" t="n">
+        <v>20180627</v>
       </c>
       <c r="B216" t="n">
         <v>5</v>
@@ -16179,10 +15749,8 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>20주(06/27)</t>
-        </is>
+      <c r="A217" t="n">
+        <v>20180627</v>
       </c>
       <c r="B217" t="n">
         <v>6</v>
@@ -16252,10 +15820,8 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>20주(06/27)</t>
-        </is>
+      <c r="A218" t="n">
+        <v>20180627</v>
       </c>
       <c r="B218" t="n">
         <v>7</v>
@@ -16325,10 +15891,8 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>20주(06/27)</t>
-        </is>
+      <c r="A219" t="n">
+        <v>20180627</v>
       </c>
       <c r="B219" t="n">
         <v>8</v>
@@ -16398,10 +15962,8 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>20주(06/27)</t>
-        </is>
+      <c r="A220" t="n">
+        <v>20180627</v>
       </c>
       <c r="B220" t="n">
         <v>9</v>
@@ -16471,10 +16033,8 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>20주(06/27)</t>
-        </is>
+      <c r="A221" t="n">
+        <v>20180627</v>
       </c>
       <c r="B221" t="n">
         <v>10</v>
@@ -16544,10 +16104,8 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>20주(06/27)</t>
-        </is>
+      <c r="A222" t="n">
+        <v>20180627</v>
       </c>
       <c r="B222" t="n">
         <v>11</v>
@@ -16617,10 +16175,8 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>20주(06/27)</t>
-        </is>
+      <c r="A223" t="n">
+        <v>20180627</v>
       </c>
       <c r="B223" t="n">
         <v>12</v>
@@ -16690,10 +16246,8 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>20주(06/27)</t>
-        </is>
+      <c r="A224" t="n">
+        <v>20180627</v>
       </c>
       <c r="B224" t="n">
         <v>13</v>
@@ -16763,10 +16317,8 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>20주(06/27)</t>
-        </is>
+      <c r="A225" t="n">
+        <v>20180627</v>
       </c>
       <c r="B225" t="n">
         <v>14</v>
@@ -16836,10 +16388,8 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>20주(06/27)</t>
-        </is>
+      <c r="A226" t="n">
+        <v>20180627</v>
       </c>
       <c r="B226" t="n">
         <v>15</v>
@@ -16909,10 +16459,8 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>21주(07/05)</t>
-        </is>
+      <c r="A227" t="n">
+        <v>20180705</v>
       </c>
       <c r="B227" t="n">
         <v>1</v>
@@ -16982,10 +16530,8 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>21주(07/05)</t>
-        </is>
+      <c r="A228" t="n">
+        <v>20180705</v>
       </c>
       <c r="B228" t="n">
         <v>2</v>
@@ -17055,10 +16601,8 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>21주(07/05)</t>
-        </is>
+      <c r="A229" t="n">
+        <v>20180705</v>
       </c>
       <c r="B229" t="n">
         <v>3</v>
@@ -17128,10 +16672,8 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>21주(07/05)</t>
-        </is>
+      <c r="A230" t="n">
+        <v>20180705</v>
       </c>
       <c r="B230" t="n">
         <v>4</v>
@@ -17201,10 +16743,8 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>21주(07/05)</t>
-        </is>
+      <c r="A231" t="n">
+        <v>20180705</v>
       </c>
       <c r="B231" t="n">
         <v>5</v>
@@ -17274,10 +16814,8 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>21주(07/05)</t>
-        </is>
+      <c r="A232" t="n">
+        <v>20180705</v>
       </c>
       <c r="B232" t="n">
         <v>6</v>
@@ -17347,10 +16885,8 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>21주(07/05)</t>
-        </is>
+      <c r="A233" t="n">
+        <v>20180705</v>
       </c>
       <c r="B233" t="n">
         <v>7</v>
@@ -17420,10 +16956,8 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>21주(07/05)</t>
-        </is>
+      <c r="A234" t="n">
+        <v>20180705</v>
       </c>
       <c r="B234" t="n">
         <v>8</v>
@@ -17493,10 +17027,8 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>21주(07/05)</t>
-        </is>
+      <c r="A235" t="n">
+        <v>20180705</v>
       </c>
       <c r="B235" t="n">
         <v>9</v>
@@ -17566,10 +17098,8 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>21주(07/05)</t>
-        </is>
+      <c r="A236" t="n">
+        <v>20180705</v>
       </c>
       <c r="B236" t="n">
         <v>10</v>
@@ -17639,10 +17169,8 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>21주(07/05)</t>
-        </is>
+      <c r="A237" t="n">
+        <v>20180705</v>
       </c>
       <c r="B237" t="n">
         <v>11</v>
@@ -17712,10 +17240,8 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>21주(07/05)</t>
-        </is>
+      <c r="A238" t="n">
+        <v>20180705</v>
       </c>
       <c r="B238" t="n">
         <v>12</v>
@@ -17785,10 +17311,8 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>21주(07/05)</t>
-        </is>
+      <c r="A239" t="n">
+        <v>20180705</v>
       </c>
       <c r="B239" t="n">
         <v>13</v>
@@ -17858,10 +17382,8 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>21주(07/05)</t>
-        </is>
+      <c r="A240" t="n">
+        <v>20180705</v>
       </c>
       <c r="B240" t="n">
         <v>14</v>
@@ -17931,10 +17453,8 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>21주(07/05)</t>
-        </is>
+      <c r="A241" t="n">
+        <v>20180705</v>
       </c>
       <c r="B241" t="n">
         <v>15</v>
@@ -18004,10 +17524,8 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>22주(07/11)</t>
-        </is>
+      <c r="A242" t="n">
+        <v>20180711</v>
       </c>
       <c r="B242" t="n">
         <v>1</v>
@@ -18077,10 +17595,8 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>22주(07/11)</t>
-        </is>
+      <c r="A243" t="n">
+        <v>20180711</v>
       </c>
       <c r="B243" t="n">
         <v>2</v>
@@ -18150,10 +17666,8 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>22주(07/11)</t>
-        </is>
+      <c r="A244" t="n">
+        <v>20180711</v>
       </c>
       <c r="B244" t="n">
         <v>3</v>
@@ -18223,10 +17737,8 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>22주(07/11)</t>
-        </is>
+      <c r="A245" t="n">
+        <v>20180711</v>
       </c>
       <c r="B245" t="n">
         <v>4</v>
@@ -18296,10 +17808,8 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>22주(07/11)</t>
-        </is>
+      <c r="A246" t="n">
+        <v>20180711</v>
       </c>
       <c r="B246" t="n">
         <v>5</v>
@@ -18369,10 +17879,8 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>22주(07/11)</t>
-        </is>
+      <c r="A247" t="n">
+        <v>20180711</v>
       </c>
       <c r="B247" t="n">
         <v>6</v>
@@ -18442,10 +17950,8 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>22주(07/11)</t>
-        </is>
+      <c r="A248" t="n">
+        <v>20180711</v>
       </c>
       <c r="B248" t="n">
         <v>7</v>
@@ -18515,10 +18021,8 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>22주(07/11)</t>
-        </is>
+      <c r="A249" t="n">
+        <v>20180711</v>
       </c>
       <c r="B249" t="n">
         <v>8</v>
@@ -18588,10 +18092,8 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>22주(07/11)</t>
-        </is>
+      <c r="A250" t="n">
+        <v>20180711</v>
       </c>
       <c r="B250" t="n">
         <v>9</v>
@@ -18661,10 +18163,8 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>22주(07/11)</t>
-        </is>
+      <c r="A251" t="n">
+        <v>20180711</v>
       </c>
       <c r="B251" t="n">
         <v>10</v>
@@ -18734,10 +18234,8 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>22주(07/11)</t>
-        </is>
+      <c r="A252" t="n">
+        <v>20180711</v>
       </c>
       <c r="B252" t="n">
         <v>11</v>
@@ -18807,10 +18305,8 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>22주(07/11)</t>
-        </is>
+      <c r="A253" t="n">
+        <v>20180711</v>
       </c>
       <c r="B253" t="n">
         <v>12</v>
@@ -18880,10 +18376,8 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>22주(07/11)</t>
-        </is>
+      <c r="A254" t="n">
+        <v>20180711</v>
       </c>
       <c r="B254" t="n">
         <v>13</v>
@@ -18953,10 +18447,8 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>22주(07/11)</t>
-        </is>
+      <c r="A255" t="n">
+        <v>20180711</v>
       </c>
       <c r="B255" t="n">
         <v>14</v>
@@ -19026,10 +18518,8 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>22주(07/11)</t>
-        </is>
+      <c r="A256" t="n">
+        <v>20180711</v>
       </c>
       <c r="B256" t="n">
         <v>15</v>
@@ -19099,10 +18589,8 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>23주(07/18)</t>
-        </is>
+      <c r="A257" t="n">
+        <v>20180718</v>
       </c>
       <c r="B257" t="n">
         <v>1</v>
@@ -19172,10 +18660,8 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>23주(07/18)</t>
-        </is>
+      <c r="A258" t="n">
+        <v>20180718</v>
       </c>
       <c r="B258" t="n">
         <v>2</v>
@@ -19245,10 +18731,8 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>23주(07/18)</t>
-        </is>
+      <c r="A259" t="n">
+        <v>20180718</v>
       </c>
       <c r="B259" t="n">
         <v>3</v>
@@ -19318,10 +18802,8 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>23주(07/18)</t>
-        </is>
+      <c r="A260" t="n">
+        <v>20180718</v>
       </c>
       <c r="B260" t="n">
         <v>4</v>
@@ -19391,10 +18873,8 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>23주(07/18)</t>
-        </is>
+      <c r="A261" t="n">
+        <v>20180718</v>
       </c>
       <c r="B261" t="n">
         <v>5</v>
@@ -19464,10 +18944,8 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>23주(07/18)</t>
-        </is>
+      <c r="A262" t="n">
+        <v>20180718</v>
       </c>
       <c r="B262" t="n">
         <v>6</v>
@@ -19537,10 +19015,8 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>23주(07/18)</t>
-        </is>
+      <c r="A263" t="n">
+        <v>20180718</v>
       </c>
       <c r="B263" t="n">
         <v>7</v>
@@ -19610,10 +19086,8 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>23주(07/18)</t>
-        </is>
+      <c r="A264" t="n">
+        <v>20180718</v>
       </c>
       <c r="B264" t="n">
         <v>8</v>
@@ -19683,10 +19157,8 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>23주(07/18)</t>
-        </is>
+      <c r="A265" t="n">
+        <v>20180718</v>
       </c>
       <c r="B265" t="n">
         <v>9</v>
@@ -19756,10 +19228,8 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>23주(07/18)</t>
-        </is>
+      <c r="A266" t="n">
+        <v>20180718</v>
       </c>
       <c r="B266" t="n">
         <v>10</v>
@@ -19829,10 +19299,8 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>23주(07/18)</t>
-        </is>
+      <c r="A267" t="n">
+        <v>20180718</v>
       </c>
       <c r="B267" t="n">
         <v>11</v>
@@ -19902,10 +19370,8 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>23주(07/18)</t>
-        </is>
+      <c r="A268" t="n">
+        <v>20180718</v>
       </c>
       <c r="B268" t="n">
         <v>12</v>
@@ -19975,10 +19441,8 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>23주(07/18)</t>
-        </is>
+      <c r="A269" t="n">
+        <v>20180718</v>
       </c>
       <c r="B269" t="n">
         <v>13</v>
@@ -20048,10 +19512,8 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>23주(07/18)</t>
-        </is>
+      <c r="A270" t="n">
+        <v>20180718</v>
       </c>
       <c r="B270" t="n">
         <v>14</v>
@@ -20121,10 +19583,8 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>23주(07/18)</t>
-        </is>
+      <c r="A271" t="n">
+        <v>20180718</v>
       </c>
       <c r="B271" t="n">
         <v>15</v>
